--- a/personalpage/data/CV.xlsx
+++ b/personalpage/data/CV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pktgc\Coding\personalpage\personalpage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1611C1A9-5F43-423A-B458-E892B75A7AE5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543998F-DA24-4442-8480-D580BBA1B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-31170" yWindow="2565" windowWidth="21600" windowHeight="11385" tabRatio="500" firstSheet="4" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -31,8 +31,19 @@
     <sheet name="MainstreamMedia" sheetId="16" r:id="rId16"/>
     <sheet name="ScientificPublication" sheetId="17" r:id="rId17"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -41,7 +52,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2199" uniqueCount="947">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="949">
   <si>
     <t>ID Name</t>
   </si>
@@ -2896,6 +2907,12 @@
   </si>
   <si>
     <t>Panama</t>
+  </si>
+  <si>
+    <t>2013</t>
+  </si>
+  <si>
+    <t>2015</t>
   </si>
 </sst>
 </file>
@@ -3653,13 +3670,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C57" sqref="C57"/>
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D7" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="43.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -3721,6 +3739,9 @@
       <c r="B3" t="s">
         <v>371</v>
       </c>
+      <c r="C3">
+        <v>2008</v>
+      </c>
       <c r="D3" t="s">
         <v>372</v>
       </c>
@@ -3744,6 +3765,9 @@
       <c r="B4" t="s">
         <v>375</v>
       </c>
+      <c r="C4">
+        <v>2008</v>
+      </c>
       <c r="D4" t="s">
         <v>376</v>
       </c>
@@ -3767,6 +3791,9 @@
       <c r="B5" t="s">
         <v>377</v>
       </c>
+      <c r="C5">
+        <v>2009</v>
+      </c>
       <c r="D5" t="s">
         <v>376</v>
       </c>
@@ -3790,6 +3817,9 @@
       <c r="B6" t="s">
         <v>378</v>
       </c>
+      <c r="C6">
+        <v>2009</v>
+      </c>
       <c r="D6" t="s">
         <v>376</v>
       </c>
@@ -3813,6 +3843,9 @@
       <c r="B7" t="s">
         <v>379</v>
       </c>
+      <c r="C7">
+        <v>2013</v>
+      </c>
       <c r="D7" t="s">
         <v>372</v>
       </c>
@@ -3836,6 +3869,9 @@
       <c r="B8" t="s">
         <v>380</v>
       </c>
+      <c r="C8">
+        <v>2013</v>
+      </c>
       <c r="D8" t="s">
         <v>381</v>
       </c>
@@ -3858,6 +3894,9 @@
       </c>
       <c r="B9" t="s">
         <v>382</v>
+      </c>
+      <c r="C9">
+        <v>2015</v>
       </c>
       <c r="D9" t="s">
         <v>376</v>
@@ -8288,19 +8327,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="D3" sqref="D3:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="7" max="7" width="26.28515625" customWidth="1"/>
+    <col min="8" max="8" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -8310,29 +8349,29 @@
       <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>141</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>61</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>771</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>772</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>780</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8342,29 +8381,29 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>60</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>773</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>774</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>782</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8374,20 +8413,24 @@
       <c r="C3">
         <v>2014</v>
       </c>
-      <c r="G3" t="s">
+      <c r="D3" t="str">
+        <f>C3&amp;"-01-01"</f>
+        <v>2014-01-01</v>
+      </c>
+      <c r="H3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="I3" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>786</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8397,20 +8440,24 @@
       <c r="C4">
         <v>2014</v>
       </c>
-      <c r="G4" t="s">
+      <c r="D4" t="str">
+        <f t="shared" ref="D4:D13" si="0">C4&amp;"-01-01"</f>
+        <v>2014-01-01</v>
+      </c>
+      <c r="H4" t="s">
         <v>1</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>176</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>789</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8420,18 +8467,22 @@
       <c r="C5">
         <v>2014</v>
       </c>
-      <c r="G5" t="s">
+      <c r="D5" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-01-01</v>
+      </c>
+      <c r="H5" t="s">
         <v>1</v>
       </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2" t="s">
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8441,18 +8492,22 @@
       <c r="C6">
         <v>2014</v>
       </c>
-      <c r="G6" t="s">
+      <c r="D6" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-01-01</v>
+      </c>
+      <c r="H6" t="s">
         <v>1</v>
       </c>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2" t="s">
+      <c r="I6" s="2"/>
+      <c r="J6" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8462,20 +8517,24 @@
       <c r="C7">
         <v>2014</v>
       </c>
-      <c r="G7" t="s">
+      <c r="D7" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-01-01</v>
+      </c>
+      <c r="H7" t="s">
         <v>1</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="I7" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I7" s="2" t="s">
+      <c r="J7" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J7" t="s">
+      <c r="K7" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8485,20 +8544,24 @@
       <c r="C8">
         <v>2014</v>
       </c>
-      <c r="G8" t="s">
+      <c r="D8" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-01-01</v>
+      </c>
+      <c r="H8" t="s">
         <v>1</v>
       </c>
-      <c r="H8" s="2" t="s">
+      <c r="I8" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="J8" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8508,18 +8571,22 @@
       <c r="C9">
         <v>2014</v>
       </c>
-      <c r="G9" t="s">
+      <c r="D9" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-01-01</v>
+      </c>
+      <c r="H9" t="s">
         <v>1</v>
       </c>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2" t="s">
+      <c r="I9" s="2"/>
+      <c r="J9" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="J9" t="s">
+      <c r="K9" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8529,20 +8596,24 @@
       <c r="C10">
         <v>2015</v>
       </c>
-      <c r="G10" t="s">
+      <c r="D10" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="H10" t="s">
         <v>1</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J10" t="s">
+      <c r="K10" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -8552,21 +8623,25 @@
       <c r="C11" s="2">
         <v>2015</v>
       </c>
-      <c r="D11" s="2"/>
+      <c r="D11" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2"/>
-      <c r="G11" t="s">
+      <c r="G11" s="2"/>
+      <c r="H11" t="s">
         <v>1</v>
       </c>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2" t="s">
+      <c r="I11" s="2"/>
+      <c r="J11" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="J11" t="s">
+      <c r="K11" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -8576,21 +8651,25 @@
       <c r="C12" s="2">
         <v>2015</v>
       </c>
-      <c r="D12" s="2"/>
+      <c r="D12" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
-      <c r="G12" t="s">
+      <c r="G12" s="2"/>
+      <c r="H12" t="s">
         <v>1</v>
       </c>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2" t="s">
+      <c r="I12" s="2"/>
+      <c r="J12" s="2" t="s">
         <v>792</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -8600,19 +8679,23 @@
       <c r="C13" s="2">
         <v>2015</v>
       </c>
-      <c r="D13" s="2"/>
+      <c r="D13" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
-      <c r="G13" t="s">
+      <c r="G13" s="2"/>
+      <c r="H13" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="2" t="s">
+      <c r="I13" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="J13" s="2" t="s">
         <v>786</v>
       </c>
-      <c r="J13" t="s">
+      <c r="K13" t="s">
         <v>787</v>
       </c>
     </row>
@@ -8624,28 +8707,29 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:N37"/>
+  <dimension ref="A1:O37"/>
   <sheetViews>
     <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J32" sqref="J32"/>
+      <selection activeCell="D3" sqref="D3:D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="3" width="7.42578125" customWidth="1"/>
-    <col min="4" max="4" width="7" customWidth="1"/>
-    <col min="5" max="5" width="14.42578125" customWidth="1"/>
-    <col min="6" max="6" width="31.28515625" customWidth="1"/>
-    <col min="7" max="7" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="22.85546875" customWidth="1"/>
-    <col min="10" max="10" width="11.28515625" customWidth="1"/>
-    <col min="11" max="11" width="18.140625" customWidth="1"/>
-    <col min="12" max="12" width="34.85546875" customWidth="1"/>
-    <col min="13" max="13" width="8.85546875" customWidth="1"/>
+    <col min="3" max="4" width="7.42578125" customWidth="1"/>
+    <col min="5" max="5" width="7" customWidth="1"/>
+    <col min="6" max="6" width="14.42578125" customWidth="1"/>
+    <col min="7" max="7" width="31.28515625" customWidth="1"/>
+    <col min="8" max="8" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="11.140625" customWidth="1"/>
+    <col min="10" max="10" width="22.85546875" customWidth="1"/>
+    <col min="11" max="11" width="11.28515625" customWidth="1"/>
+    <col min="12" max="12" width="18.140625" customWidth="1"/>
+    <col min="13" max="13" width="34.85546875" customWidth="1"/>
+    <col min="14" max="14" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -8655,41 +8739,41 @@
       <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>136</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>55</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>52</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>710</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>771</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>772</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>801</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>802</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>803</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8699,41 +8783,41 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>141</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>142</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>54</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>51</v>
       </c>
-      <c r="H2" t="s">
+      <c r="I2" t="s">
         <v>57</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>773</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>774</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>805</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>806</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>807</v>
       </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8743,31 +8827,35 @@
       <c r="C3" s="2">
         <v>2011</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="5" t="s">
+      <c r="D3" s="2" t="str">
+        <f>C3&amp;"-01-01"</f>
+        <v>2011-01-01</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="6"/>
+      <c r="I3" s="3" t="s">
         <v>810</v>
       </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>811</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>812</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="M3" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8777,34 +8865,38 @@
       <c r="C4" s="2">
         <v>2011</v>
       </c>
-      <c r="D4" s="2"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="2" t="str">
+        <f t="shared" ref="D4:D37" si="0">C4&amp;"-01-01"</f>
+        <v>2011-01-01</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="6"/>
+      <c r="I4" s="3" t="s">
         <v>815</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>811</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>816</v>
       </c>
-      <c r="L4" s="2" t="s">
+      <c r="M4" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="N4" s="2" t="s">
         <v>818</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8814,34 +8906,38 @@
       <c r="C5" s="2">
         <v>2011</v>
       </c>
-      <c r="D5" s="2"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G5" s="6"/>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="6"/>
+      <c r="I5" s="3" t="s">
         <v>821</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>811</v>
       </c>
-      <c r="J5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>205</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>816</v>
       </c>
-      <c r="L5" s="2" t="s">
+      <c r="M5" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="N5" s="2" t="s">
         <v>822</v>
       </c>
-      <c r="N5" s="6" t="s">
+      <c r="O5" s="6" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8851,24 +8947,28 @@
       <c r="C6">
         <v>2011</v>
       </c>
-      <c r="E6" t="s">
+      <c r="D6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="F6" t="s">
         <v>824</v>
       </c>
-      <c r="G6" s="6"/>
-      <c r="I6" t="s">
+      <c r="H6" s="6"/>
+      <c r="J6" t="s">
         <v>811</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>176</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>825</v>
       </c>
-      <c r="L6" s="2" t="s">
+      <c r="M6" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8878,31 +8978,35 @@
       <c r="C7">
         <v>2013</v>
       </c>
-      <c r="E7" t="s">
+      <c r="D7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2013-01-01</v>
+      </c>
+      <c r="F7" t="s">
         <v>828</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>829</v>
       </c>
-      <c r="G7" s="6"/>
-      <c r="I7" t="s">
+      <c r="H7" s="6"/>
+      <c r="J7" t="s">
         <v>830</v>
       </c>
-      <c r="J7" s="2"/>
-      <c r="K7" t="s">
+      <c r="K7" s="2"/>
+      <c r="L7" t="s">
         <v>831</v>
       </c>
-      <c r="L7" s="2" t="s">
+      <c r="M7" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>44</v>
       </c>
-      <c r="N7" t="s">
+      <c r="O7" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8912,28 +9016,32 @@
       <c r="C8">
         <v>2014</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2014-01-01</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G8" s="6"/>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="6"/>
+      <c r="I8" s="3" t="s">
         <v>835</v>
       </c>
-      <c r="I8" t="s">
+      <c r="J8" t="s">
         <v>836</v>
       </c>
-      <c r="J8" s="2"/>
-      <c r="K8" t="s">
+      <c r="K8" s="2"/>
+      <c r="L8" t="s">
         <v>816</v>
       </c>
-      <c r="L8" s="2" t="s">
+      <c r="M8" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="M8" t="s">
+      <c r="N8" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8943,32 +9051,36 @@
       <c r="C9">
         <v>2015</v>
       </c>
-      <c r="E9" t="s">
+      <c r="D9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F9" t="s">
         <v>806</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>839</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="H9" s="6" t="s">
         <v>840</v>
       </c>
-      <c r="I9" t="s">
+      <c r="J9" t="s">
         <v>841</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>802</v>
       </c>
-      <c r="L9" t="s">
+      <c r="M9" t="s">
         <v>842</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>145</v>
       </c>
-      <c r="N9" t="s">
+      <c r="O9" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8978,23 +9090,27 @@
       <c r="C10" s="2">
         <v>2015</v>
       </c>
-      <c r="E10" t="s">
+      <c r="D10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F10" t="s">
         <v>845</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="H10" s="6" t="s">
         <v>846</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
         <v>847</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>848</v>
       </c>
-      <c r="L10" s="2" t="s">
+      <c r="M10" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9004,28 +9120,32 @@
       <c r="C11">
         <v>2015</v>
       </c>
-      <c r="E11" s="5" t="s">
+      <c r="D11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F11" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G11" s="6"/>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="6"/>
+      <c r="I11" s="3" t="s">
         <v>851</v>
       </c>
-      <c r="I11" t="s">
+      <c r="J11" t="s">
         <v>836</v>
       </c>
-      <c r="J11" s="2"/>
-      <c r="K11" t="s">
+      <c r="K11" s="2"/>
+      <c r="L11" t="s">
         <v>816</v>
       </c>
-      <c r="L11" s="2" t="s">
+      <c r="M11" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="M11" t="s">
+      <c r="N11" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9035,28 +9155,32 @@
       <c r="C12">
         <v>2015</v>
       </c>
-      <c r="E12" s="5" t="s">
+      <c r="D12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F12" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G12" s="6"/>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="6"/>
+      <c r="I12" s="3" t="s">
         <v>854</v>
       </c>
-      <c r="I12" t="s">
+      <c r="J12" t="s">
         <v>836</v>
       </c>
-      <c r="J12" s="2"/>
-      <c r="K12" t="s">
+      <c r="K12" s="2"/>
+      <c r="L12" t="s">
         <v>816</v>
       </c>
-      <c r="L12" s="2" t="s">
+      <c r="M12" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="M12" t="s">
+      <c r="N12" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9066,28 +9190,32 @@
       <c r="C13">
         <v>2015</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="D13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F13" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G13" s="6"/>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="6"/>
+      <c r="I13" s="3" t="s">
         <v>857</v>
       </c>
-      <c r="I13" t="s">
+      <c r="J13" t="s">
         <v>836</v>
       </c>
-      <c r="J13" s="2"/>
-      <c r="K13" t="s">
+      <c r="K13" s="2"/>
+      <c r="L13" t="s">
         <v>816</v>
       </c>
-      <c r="L13" s="2" t="s">
+      <c r="M13" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="M13" t="s">
+      <c r="N13" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9097,24 +9225,28 @@
       <c r="C14">
         <v>2015</v>
       </c>
-      <c r="E14" t="s">
+      <c r="D14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F14" t="s">
         <v>824</v>
       </c>
-      <c r="G14" s="6"/>
-      <c r="I14" t="s">
+      <c r="H14" s="6"/>
+      <c r="J14" t="s">
         <v>860</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>176</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>825</v>
       </c>
-      <c r="L14" s="2" t="s">
+      <c r="M14" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9124,31 +9256,35 @@
       <c r="C15">
         <v>2015</v>
       </c>
-      <c r="E15" t="s">
+      <c r="D15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F15" t="s">
         <v>828</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>863</v>
       </c>
-      <c r="G15" s="6"/>
-      <c r="I15" t="s">
+      <c r="H15" s="6"/>
+      <c r="J15" t="s">
         <v>864</v>
       </c>
-      <c r="J15" s="2"/>
-      <c r="K15" t="s">
+      <c r="K15" s="2"/>
+      <c r="L15" t="s">
         <v>831</v>
       </c>
-      <c r="L15" s="2" t="s">
+      <c r="M15" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="M15">
+      <c r="N15">
         <v>50</v>
       </c>
-      <c r="N15" t="s">
+      <c r="O15" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9158,31 +9294,35 @@
       <c r="C16">
         <v>2015</v>
       </c>
-      <c r="E16" t="s">
+      <c r="D16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F16" t="s">
         <v>828</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>867</v>
       </c>
-      <c r="G16" s="6"/>
-      <c r="I16" t="s">
+      <c r="H16" s="6"/>
+      <c r="J16" t="s">
         <v>868</v>
       </c>
-      <c r="J16" s="2"/>
-      <c r="K16" t="s">
+      <c r="K16" s="2"/>
+      <c r="L16" t="s">
         <v>831</v>
       </c>
-      <c r="L16" s="2" t="s">
+      <c r="M16" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="M16">
+      <c r="N16">
         <v>50</v>
       </c>
-      <c r="N16" t="s">
+      <c r="O16" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9192,28 +9332,32 @@
       <c r="C17">
         <v>2016</v>
       </c>
-      <c r="E17" s="5" t="s">
+      <c r="D17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2016-01-01</v>
+      </c>
+      <c r="F17" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G17" s="6"/>
-      <c r="H17" t="s">
+      <c r="H17" s="6"/>
+      <c r="I17" t="s">
         <v>871</v>
       </c>
-      <c r="I17" t="s">
+      <c r="J17" t="s">
         <v>836</v>
       </c>
-      <c r="J17" s="2"/>
-      <c r="K17" t="s">
+      <c r="K17" s="2"/>
+      <c r="L17" t="s">
         <v>816</v>
       </c>
-      <c r="L17" s="2" t="s">
+      <c r="M17" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="M17" t="s">
+      <c r="N17" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9223,25 +9367,29 @@
       <c r="C18">
         <v>2016</v>
       </c>
-      <c r="E18" t="s">
+      <c r="D18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2016-01-01</v>
+      </c>
+      <c r="F18" t="s">
         <v>873</v>
       </c>
-      <c r="G18" s="6">
+      <c r="H18" s="6">
         <v>1612.0343499999999</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="J18" s="2" t="s">
         <v>874</v>
       </c>
-      <c r="J18" s="2"/>
-      <c r="K18" t="s">
+      <c r="K18" s="2"/>
+      <c r="L18" t="s">
         <v>848</v>
       </c>
-      <c r="L18" s="2" t="s">
+      <c r="M18" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="M18" s="4"/>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="N18" s="4"/>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9251,32 +9399,36 @@
       <c r="C19">
         <v>2016</v>
       </c>
-      <c r="E19" t="s">
+      <c r="D19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2016-01-01</v>
+      </c>
+      <c r="F19" t="s">
         <v>806</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>876</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="H19" s="6" t="s">
         <v>877</v>
       </c>
-      <c r="I19" s="2" t="s">
+      <c r="J19" s="2" t="s">
         <v>878</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>802</v>
       </c>
-      <c r="L19" t="s">
+      <c r="M19" t="s">
         <v>879</v>
       </c>
-      <c r="M19">
+      <c r="N19">
         <v>144</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -9286,26 +9438,30 @@
       <c r="C20" s="2">
         <v>2017</v>
       </c>
-      <c r="D20" s="2"/>
-      <c r="E20" s="5" t="s">
+      <c r="D20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-01-01</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" s="5" t="s">
         <v>111</v>
       </c>
-      <c r="G20" s="6"/>
-      <c r="I20" t="s">
+      <c r="H20" s="6"/>
+      <c r="J20" t="s">
         <v>836</v>
       </c>
-      <c r="J20" s="2"/>
-      <c r="K20" t="s">
+      <c r="K20" s="2"/>
+      <c r="L20" t="s">
         <v>816</v>
       </c>
-      <c r="L20" s="2" t="s">
+      <c r="M20" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="M20" s="2" t="s">
+      <c r="N20" s="2" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9315,23 +9471,27 @@
       <c r="C21">
         <v>2017</v>
       </c>
-      <c r="E21" t="s">
+      <c r="D21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-01-01</v>
+      </c>
+      <c r="F21" t="s">
         <v>845</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="H21" s="6" t="s">
         <v>883</v>
       </c>
-      <c r="I21" t="s">
+      <c r="J21" t="s">
         <v>884</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>831</v>
       </c>
-      <c r="L21" t="s">
+      <c r="M21" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9341,32 +9501,36 @@
       <c r="C22">
         <v>2017</v>
       </c>
-      <c r="E22" t="s">
+      <c r="D22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-01-01</v>
+      </c>
+      <c r="F22" t="s">
         <v>806</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>887</v>
       </c>
-      <c r="G22" s="6">
+      <c r="H22" s="6">
         <v>1511.01315</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>864</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>802</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>888</v>
       </c>
-      <c r="M22">
+      <c r="N22">
         <v>82</v>
       </c>
-      <c r="N22" t="s">
+      <c r="O22" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9376,30 +9540,34 @@
       <c r="C23">
         <v>2018</v>
       </c>
-      <c r="E23" t="s">
+      <c r="D23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-01-01</v>
+      </c>
+      <c r="F23" t="s">
         <v>828</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>891</v>
       </c>
-      <c r="G23" s="6"/>
-      <c r="I23" t="s">
+      <c r="H23" s="6"/>
+      <c r="J23" t="s">
         <v>892</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>831</v>
       </c>
-      <c r="L23" t="s">
+      <c r="M23" t="s">
         <v>893</v>
       </c>
-      <c r="M23">
+      <c r="N23">
         <v>99</v>
       </c>
-      <c r="N23" t="s">
+      <c r="O23" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9409,32 +9577,36 @@
       <c r="C24">
         <v>2018</v>
       </c>
-      <c r="E24" t="s">
+      <c r="D24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-01-01</v>
+      </c>
+      <c r="F24" t="s">
         <v>806</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>896</v>
       </c>
-      <c r="G24" s="6">
+      <c r="H24" s="6">
         <v>1701.05529</v>
       </c>
-      <c r="I24" t="s">
+      <c r="J24" t="s">
         <v>897</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>802</v>
       </c>
-      <c r="L24" t="s">
+      <c r="M24" t="s">
         <v>153</v>
       </c>
-      <c r="M24" t="s">
+      <c r="N24" t="s">
         <v>898</v>
       </c>
-      <c r="N24" t="s">
+      <c r="O24" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9444,32 +9616,36 @@
       <c r="C25">
         <v>2018</v>
       </c>
-      <c r="E25" t="s">
+      <c r="D25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-01-01</v>
+      </c>
+      <c r="F25" t="s">
         <v>806</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>901</v>
       </c>
-      <c r="G25" s="6">
+      <c r="H25" s="6">
         <v>1601.0042100000001</v>
       </c>
-      <c r="I25" t="s">
+      <c r="J25" t="s">
         <v>864</v>
       </c>
-      <c r="K25" t="s">
+      <c r="L25" t="s">
         <v>802</v>
       </c>
-      <c r="L25" t="s">
+      <c r="M25" t="s">
         <v>902</v>
       </c>
-      <c r="M25" t="s">
+      <c r="N25" t="s">
         <v>903</v>
       </c>
-      <c r="N25" t="s">
+      <c r="O25" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9479,32 +9655,36 @@
       <c r="C26">
         <v>2018</v>
       </c>
-      <c r="E26" t="s">
+      <c r="D26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2018-01-01</v>
+      </c>
+      <c r="F26" t="s">
         <v>806</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>906</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="H26" s="6" t="s">
         <v>907</v>
       </c>
-      <c r="I26" t="s">
+      <c r="J26" t="s">
         <v>908</v>
       </c>
-      <c r="K26" t="s">
+      <c r="L26" t="s">
         <v>802</v>
       </c>
-      <c r="L26" t="s">
+      <c r="M26" t="s">
         <v>888</v>
       </c>
-      <c r="M26">
+      <c r="N26">
         <v>94</v>
       </c>
-      <c r="N26" t="s">
+      <c r="O26" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9514,33 +9694,37 @@
       <c r="C27">
         <v>2019</v>
       </c>
-      <c r="E27" t="s">
+      <c r="D27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-01</v>
+      </c>
+      <c r="F27" t="s">
         <v>806</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>910</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="H27" s="6" t="s">
         <v>911</v>
       </c>
-      <c r="I27" t="s">
+      <c r="J27" t="s">
         <v>892</v>
       </c>
-      <c r="J27" s="2"/>
-      <c r="K27" t="s">
+      <c r="K27" s="2"/>
+      <c r="L27" t="s">
         <v>802</v>
       </c>
-      <c r="L27" s="2" t="s">
+      <c r="M27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="M27" s="2">
+      <c r="N27" s="2">
         <v>63</v>
       </c>
-      <c r="N27" s="2" t="s">
+      <c r="O27" s="2" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9550,23 +9734,27 @@
       <c r="C28">
         <v>2019</v>
       </c>
-      <c r="E28" t="s">
+      <c r="D28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-01</v>
+      </c>
+      <c r="F28" t="s">
         <v>828</v>
       </c>
-      <c r="H28" t="s">
+      <c r="I28" t="s">
         <v>914</v>
       </c>
-      <c r="I28" t="s">
+      <c r="J28" t="s">
         <v>915</v>
       </c>
-      <c r="K28" t="s">
+      <c r="L28" t="s">
         <v>831</v>
       </c>
-      <c r="L28" t="s">
+      <c r="M28" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9576,23 +9764,27 @@
       <c r="C29">
         <v>2019</v>
       </c>
-      <c r="E29" t="s">
+      <c r="D29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-01</v>
+      </c>
+      <c r="F29" t="s">
         <v>828</v>
       </c>
-      <c r="H29" t="s">
+      <c r="I29" t="s">
         <v>918</v>
       </c>
-      <c r="I29" t="s">
+      <c r="J29" t="s">
         <v>919</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>831</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9602,23 +9794,27 @@
       <c r="C30">
         <v>2019</v>
       </c>
-      <c r="E30" t="s">
+      <c r="D30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-01</v>
+      </c>
+      <c r="F30" t="s">
         <v>828</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>921</v>
       </c>
-      <c r="I30" t="s">
+      <c r="J30" t="s">
         <v>922</v>
       </c>
-      <c r="K30" t="s">
+      <c r="L30" t="s">
         <v>831</v>
       </c>
-      <c r="L30" t="s">
+      <c r="M30" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="31" spans="1:14" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -9628,23 +9824,27 @@
       <c r="C31">
         <v>2019</v>
       </c>
-      <c r="E31" t="s">
+      <c r="D31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2019-01-01</v>
+      </c>
+      <c r="F31" t="s">
         <v>828</v>
       </c>
-      <c r="H31" t="s">
+      <c r="I31" t="s">
         <v>925</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>926</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>831</v>
       </c>
-      <c r="L31" s="2" t="s">
+      <c r="M31" s="2" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9654,32 +9854,36 @@
       <c r="C32">
         <v>2020</v>
       </c>
-      <c r="E32" t="s">
+      <c r="D32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-01</v>
+      </c>
+      <c r="F32" t="s">
         <v>806</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="G32" s="5" t="s">
         <v>929</v>
       </c>
-      <c r="G32">
+      <c r="H32">
         <v>1902.0316600000001</v>
       </c>
-      <c r="I32" t="s">
+      <c r="J32" t="s">
         <v>930</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>802</v>
       </c>
-      <c r="L32" s="2" t="s">
+      <c r="M32" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="M32" t="s">
+      <c r="N32" t="s">
         <v>931</v>
       </c>
-      <c r="N32">
+      <c r="O32">
         <v>112105</v>
       </c>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9689,29 +9893,33 @@
       <c r="C33">
         <v>2020</v>
       </c>
-      <c r="E33" t="s">
+      <c r="D33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-01</v>
+      </c>
+      <c r="F33" t="s">
         <v>806</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>933</v>
       </c>
-      <c r="I33" t="s">
+      <c r="J33" t="s">
         <v>922</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>802</v>
       </c>
-      <c r="L33" t="s">
+      <c r="M33" t="s">
         <v>934</v>
       </c>
-      <c r="M33">
+      <c r="N33">
         <v>89</v>
       </c>
-      <c r="N33">
+      <c r="O33">
         <v>103157</v>
       </c>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9721,23 +9929,27 @@
       <c r="C34">
         <v>2020</v>
       </c>
-      <c r="E34" t="s">
+      <c r="D34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2020-01-01</v>
+      </c>
+      <c r="F34" t="s">
         <v>845</v>
       </c>
-      <c r="G34" s="5">
+      <c r="H34" s="5">
         <v>2002.0548799999999</v>
       </c>
-      <c r="I34" t="s">
+      <c r="J34" t="s">
         <v>926</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>848</v>
       </c>
-      <c r="L34" t="s">
+      <c r="M34" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="35" spans="1:14" ht="45" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -9747,32 +9959,36 @@
       <c r="C35">
         <v>2021</v>
       </c>
-      <c r="E35" t="s">
+      <c r="D35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-01-01</v>
+      </c>
+      <c r="F35" t="s">
         <v>806</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>936</v>
       </c>
-      <c r="G35">
+      <c r="H35">
         <v>1909.01189</v>
       </c>
-      <c r="I35" t="s">
+      <c r="J35" t="s">
         <v>919</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>802</v>
       </c>
-      <c r="L35" s="2" t="s">
+      <c r="M35" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="M35">
+      <c r="N35">
         <v>149</v>
       </c>
-      <c r="N35" t="s">
+      <c r="O35" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9782,32 +9998,36 @@
       <c r="C36">
         <v>2021</v>
       </c>
-      <c r="E36" t="s">
+      <c r="D36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-01-01</v>
+      </c>
+      <c r="F36" t="s">
         <v>806</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>940</v>
       </c>
-      <c r="G36">
+      <c r="H36">
         <v>2007.10139</v>
       </c>
-      <c r="I36" t="s">
+      <c r="J36" t="s">
         <v>915</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>802</v>
       </c>
-      <c r="L36" t="s">
+      <c r="M36" t="s">
         <v>400</v>
       </c>
-      <c r="M36" t="s">
+      <c r="N36" t="s">
         <v>941</v>
       </c>
-      <c r="N36">
+      <c r="O36">
         <v>112406</v>
       </c>
     </row>
-    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -9817,34 +10037,38 @@
       <c r="C37">
         <v>2021</v>
       </c>
-      <c r="E37" t="s">
+      <c r="D37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>2021-01-01</v>
+      </c>
+      <c r="F37" t="s">
         <v>828</v>
       </c>
-      <c r="H37" t="s">
+      <c r="I37" t="s">
         <v>943</v>
       </c>
-      <c r="I37" t="s">
+      <c r="J37" t="s">
         <v>944</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>831</v>
       </c>
-      <c r="L37" t="s">
+      <c r="M37" t="s">
         <v>945</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
-    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
-    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
-    <hyperlink ref="H29" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
-    <hyperlink ref="H31" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
+    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="I8" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="I11" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="I12" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="I13" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
+    <hyperlink ref="I28" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
+    <hyperlink ref="I29" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
+    <hyperlink ref="I31" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10443,7 +10667,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D3" sqref="D3:D9"/>
     </sheetView>
   </sheetViews>
@@ -11039,21 +11263,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:J29"/>
+  <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" customWidth="1"/>
-    <col min="5" max="5" width="31.5703125" customWidth="1"/>
-    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" hidden="1" customWidth="1"/>
+    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="31.5703125" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="64.42578125" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -11066,23 +11292,23 @@
       <c r="D1" t="s">
         <v>168</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>136</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>137</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>139</v>
       </c>
-      <c r="H1" t="s">
+      <c r="J1" t="s">
         <v>209</v>
       </c>
-      <c r="I1" t="s">
+      <c r="K1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -11095,23 +11321,23 @@
       <c r="D2" t="s">
         <v>170</v>
       </c>
-      <c r="E2" t="s">
+      <c r="G2" t="s">
         <v>141</v>
       </c>
-      <c r="F2" t="s">
+      <c r="H2" t="s">
         <v>142</v>
       </c>
-      <c r="G2" t="s">
+      <c r="I2" t="s">
         <v>143</v>
       </c>
-      <c r="H2" t="s">
+      <c r="J2" t="s">
         <v>211</v>
       </c>
-      <c r="I2" t="s">
+      <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11124,23 +11350,31 @@
       <c r="D3">
         <v>2006</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" t="str">
+        <f>C3&amp;"-01-01"</f>
+        <v>2006-01-01</v>
+      </c>
+      <c r="F3" t="str">
+        <f>D3&amp;"-01-01"</f>
+        <v>2006-01-01</v>
+      </c>
+      <c r="G3" t="s">
         <v>213</v>
       </c>
-      <c r="F3" t="s">
+      <c r="H3" t="s">
         <v>214</v>
       </c>
-      <c r="G3" t="s">
+      <c r="I3" t="s">
         <v>215</v>
       </c>
-      <c r="H3" t="s">
+      <c r="J3" t="s">
         <v>216</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="K3" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11153,23 +11387,31 @@
       <c r="D4">
         <v>2006</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E4" t="str">
+        <f t="shared" ref="E4:E29" si="0">C4&amp;"-01-01"</f>
+        <v>2006-01-01</v>
+      </c>
+      <c r="F4" t="str">
+        <f t="shared" ref="F4:F29" si="1">D4&amp;"-01-01"</f>
+        <v>2006-01-01</v>
+      </c>
+      <c r="G4" t="s">
         <v>219</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="H4" s="2" t="s">
         <v>220</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="I4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H4" s="2" t="s">
+      <c r="J4" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I4" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11182,23 +11424,31 @@
       <c r="D5">
         <v>2007</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" t="str">
+        <f t="shared" si="0"/>
+        <v>2007-01-01</v>
+      </c>
+      <c r="F5" t="str">
+        <f t="shared" si="1"/>
+        <v>2007-01-01</v>
+      </c>
+      <c r="G5" t="s">
         <v>213</v>
       </c>
-      <c r="F5" t="s">
+      <c r="H5" t="s">
         <v>214</v>
       </c>
-      <c r="G5" t="s">
+      <c r="I5" t="s">
         <v>215</v>
       </c>
-      <c r="H5" t="s">
+      <c r="J5" t="s">
         <v>222</v>
       </c>
-      <c r="I5" s="2" t="s">
+      <c r="K5" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11211,23 +11461,31 @@
       <c r="D6">
         <v>2007</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E6" t="str">
+        <f t="shared" si="0"/>
+        <v>2007-01-01</v>
+      </c>
+      <c r="F6" t="str">
+        <f t="shared" si="1"/>
+        <v>2007-01-01</v>
+      </c>
+      <c r="G6" t="s">
         <v>224</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="H6" s="2" t="s">
         <v>225</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="I6" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="H6" s="2" t="s">
+      <c r="J6" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="I6" t="s">
+      <c r="K6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11240,23 +11498,31 @@
       <c r="D7">
         <v>2007</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E7" t="str">
+        <f t="shared" si="0"/>
+        <v>2007-01-01</v>
+      </c>
+      <c r="F7" t="str">
+        <f t="shared" si="1"/>
+        <v>2007-01-01</v>
+      </c>
+      <c r="G7" t="s">
         <v>228</v>
       </c>
-      <c r="F7" t="s">
+      <c r="H7" t="s">
         <v>229</v>
       </c>
-      <c r="G7" t="s">
+      <c r="I7" t="s">
         <v>230</v>
       </c>
-      <c r="H7" t="s">
+      <c r="J7" t="s">
         <v>231</v>
       </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11269,23 +11535,31 @@
       <c r="D8">
         <v>2008</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" t="str">
+        <f t="shared" si="0"/>
+        <v>2008-01-01</v>
+      </c>
+      <c r="F8" t="str">
+        <f t="shared" si="1"/>
+        <v>2008-01-01</v>
+      </c>
+      <c r="G8" t="s">
         <v>213</v>
       </c>
-      <c r="F8" t="s">
+      <c r="H8" t="s">
         <v>232</v>
       </c>
-      <c r="G8" t="s">
+      <c r="I8" t="s">
         <v>215</v>
       </c>
-      <c r="H8" t="s">
+      <c r="J8" t="s">
         <v>222</v>
       </c>
-      <c r="I8" s="2" t="s">
+      <c r="K8" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11298,23 +11572,31 @@
       <c r="D9">
         <v>2009</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" t="str">
+        <f t="shared" si="0"/>
+        <v>2009-01-01</v>
+      </c>
+      <c r="F9" t="str">
+        <f t="shared" si="1"/>
+        <v>2009-01-01</v>
+      </c>
+      <c r="G9" t="s">
         <v>234</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="H9" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="G9" s="2" t="s">
+      <c r="I9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="J9" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I9" s="2" t="s">
+      <c r="K9" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11327,23 +11609,31 @@
       <c r="D10">
         <v>2009</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E10" t="str">
+        <f t="shared" si="0"/>
+        <v>2009-01-01</v>
+      </c>
+      <c r="F10" t="str">
+        <f t="shared" si="1"/>
+        <v>2009-01-01</v>
+      </c>
+      <c r="G10" t="s">
         <v>238</v>
       </c>
-      <c r="F10" s="2" t="s">
+      <c r="H10" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H10" t="s">
+      <c r="J10" t="s">
         <v>240</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11356,23 +11646,31 @@
       <c r="D11">
         <v>2009</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" t="str">
+        <f t="shared" si="0"/>
+        <v>2009-01-01</v>
+      </c>
+      <c r="F11" t="str">
+        <f t="shared" si="1"/>
+        <v>2009-01-01</v>
+      </c>
+      <c r="G11" t="s">
         <v>242</v>
       </c>
-      <c r="F11" t="s">
+      <c r="H11" t="s">
         <v>243</v>
       </c>
-      <c r="G11" t="s">
+      <c r="I11" t="s">
         <v>244</v>
       </c>
-      <c r="H11" t="s">
+      <c r="J11" t="s">
         <v>221</v>
       </c>
-      <c r="I11" t="s">
+      <c r="K11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11385,23 +11683,31 @@
       <c r="D12">
         <v>2010</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E12" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="F12" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="G12" t="s">
         <v>246</v>
       </c>
-      <c r="F12" t="s">
+      <c r="H12" t="s">
         <v>247</v>
       </c>
-      <c r="G12" t="s">
+      <c r="I12" t="s">
         <v>215</v>
       </c>
-      <c r="H12" t="s">
+      <c r="J12" t="s">
         <v>222</v>
       </c>
-      <c r="I12" s="2" t="s">
+      <c r="K12" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11414,23 +11720,31 @@
       <c r="D13">
         <v>2010</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E13" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="F13" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="G13" t="s">
         <v>249</v>
       </c>
-      <c r="F13" t="s">
+      <c r="H13" t="s">
         <v>250</v>
       </c>
-      <c r="G13" t="s">
+      <c r="I13" t="s">
         <v>946</v>
       </c>
-      <c r="H13" t="s">
+      <c r="J13" t="s">
         <v>251</v>
       </c>
-      <c r="I13" s="2" t="s">
+      <c r="K13" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11443,23 +11757,31 @@
       <c r="D14">
         <v>2010</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="F14" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="G14" t="s">
         <v>253</v>
       </c>
-      <c r="F14" t="s">
+      <c r="H14" t="s">
         <v>254</v>
       </c>
-      <c r="G14" s="2" t="s">
+      <c r="I14" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="H14" t="s">
+      <c r="J14" t="s">
         <v>256</v>
       </c>
-      <c r="I14" s="2" t="s">
+      <c r="K14" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11472,23 +11794,31 @@
       <c r="D15">
         <v>2010</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" t="str">
+        <f t="shared" si="0"/>
+        <v>2007-01-01</v>
+      </c>
+      <c r="F15" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="G15" t="s">
         <v>219</v>
       </c>
-      <c r="F15" s="2" t="s">
+      <c r="H15" s="2" t="s">
         <v>257</v>
       </c>
-      <c r="G15" s="2" t="s">
+      <c r="I15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H15" s="2" t="s">
+      <c r="J15" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I15" s="2" t="s">
+      <c r="K15" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11501,23 +11831,31 @@
       <c r="D16">
         <v>2010</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" t="str">
+        <f t="shared" si="0"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="F16" t="str">
+        <f t="shared" si="1"/>
+        <v>2010-01-01</v>
+      </c>
+      <c r="G16" t="s">
         <v>242</v>
       </c>
-      <c r="F16" t="s">
+      <c r="H16" t="s">
         <v>243</v>
       </c>
-      <c r="G16" t="s">
+      <c r="I16" t="s">
         <v>258</v>
       </c>
-      <c r="H16" t="s">
+      <c r="J16" t="s">
         <v>240</v>
       </c>
-      <c r="I16" t="s">
+      <c r="K16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11530,23 +11868,31 @@
       <c r="D17">
         <v>2011</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E17" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="F17" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="G17" t="s">
         <v>253</v>
       </c>
-      <c r="F17" t="s">
+      <c r="H17" t="s">
         <v>259</v>
       </c>
-      <c r="G17" s="2" t="s">
+      <c r="I17" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H17" t="s">
+      <c r="J17" t="s">
         <v>260</v>
       </c>
-      <c r="I17" s="2" t="s">
+      <c r="K17" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11559,23 +11905,31 @@
       <c r="D18">
         <v>2011</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E18" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="F18" t="str">
+        <f t="shared" si="1"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="G18" t="s">
         <v>262</v>
       </c>
-      <c r="F18" t="s">
+      <c r="H18" t="s">
         <v>263</v>
       </c>
-      <c r="G18" s="2" t="s">
+      <c r="I18" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="H18" t="s">
+      <c r="J18" t="s">
         <v>256</v>
       </c>
-      <c r="I18" s="2" t="s">
+      <c r="K18" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11588,23 +11942,31 @@
       <c r="D19">
         <v>2014</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="F19" t="str">
+        <f t="shared" si="1"/>
+        <v>2014-01-01</v>
+      </c>
+      <c r="G19" t="s">
         <v>242</v>
       </c>
-      <c r="F19" t="s">
+      <c r="H19" t="s">
         <v>265</v>
       </c>
-      <c r="G19" t="s">
+      <c r="I19" t="s">
         <v>266</v>
       </c>
-      <c r="H19" t="s">
+      <c r="J19" t="s">
         <v>267</v>
       </c>
-      <c r="I19" t="s">
+      <c r="K19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11617,23 +11979,31 @@
       <c r="D20">
         <v>2015</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E20" t="str">
+        <f t="shared" si="0"/>
+        <v>2013-01-01</v>
+      </c>
+      <c r="F20" t="str">
+        <f t="shared" si="1"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="G20" t="s">
         <v>269</v>
       </c>
-      <c r="F20" t="s">
+      <c r="H20" t="s">
         <v>270</v>
       </c>
-      <c r="G20" s="2" t="s">
+      <c r="I20" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="H20" t="s">
+      <c r="J20" t="s">
         <v>267</v>
       </c>
-      <c r="I20" s="2" t="s">
+      <c r="K20" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -11646,23 +12016,31 @@
       <c r="D21">
         <v>2015</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E21" t="str">
+        <f t="shared" si="0"/>
+        <v>2012-01-01</v>
+      </c>
+      <c r="F21" t="str">
+        <f t="shared" si="1"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="G21" t="s">
         <v>272</v>
       </c>
-      <c r="F21" t="s">
+      <c r="H21" t="s">
         <v>273</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="I21" s="2" t="s">
         <v>274</v>
       </c>
-      <c r="H21" t="s">
+      <c r="J21" t="s">
         <v>267</v>
       </c>
-      <c r="I21" s="2" t="s">
+      <c r="K21" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -11675,23 +12053,31 @@
       <c r="D22">
         <v>2015</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="F22" t="str">
+        <f t="shared" si="1"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="G22" t="s">
         <v>238</v>
       </c>
-      <c r="F22" s="2" t="s">
+      <c r="H22" s="2" t="s">
         <v>275</v>
       </c>
-      <c r="G22" s="2" t="s">
+      <c r="I22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="J22" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="I22" s="2" t="s">
+      <c r="K22" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -11704,23 +12090,31 @@
       <c r="D23">
         <v>2015</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E23" t="str">
+        <f t="shared" si="0"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="F23" t="str">
+        <f t="shared" si="1"/>
+        <v>2015-01-01</v>
+      </c>
+      <c r="G23" t="s">
         <v>242</v>
       </c>
-      <c r="F23" t="s">
+      <c r="H23" t="s">
         <v>277</v>
       </c>
-      <c r="G23" t="s">
+      <c r="I23" t="s">
         <v>215</v>
       </c>
-      <c r="H23" t="s">
+      <c r="J23" t="s">
         <v>278</v>
       </c>
-      <c r="I23" t="s">
+      <c r="K23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -11733,23 +12127,31 @@
       <c r="D24">
         <v>2016</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" t="str">
+        <f t="shared" si="0"/>
+        <v>2016-01-01</v>
+      </c>
+      <c r="F24" t="str">
+        <f t="shared" si="1"/>
+        <v>2016-01-01</v>
+      </c>
+      <c r="G24" t="s">
         <v>279</v>
       </c>
-      <c r="F24" t="s">
+      <c r="H24" t="s">
         <v>263</v>
       </c>
-      <c r="G24" s="2" t="s">
+      <c r="I24" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="H24" t="s">
+      <c r="J24" t="s">
         <v>281</v>
       </c>
-      <c r="I24" s="2" t="s">
+      <c r="K24" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -11762,23 +12164,31 @@
       <c r="D25">
         <v>2021</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-01-01</v>
+      </c>
+      <c r="F25" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-01-01</v>
+      </c>
+      <c r="G25" t="s">
         <v>282</v>
       </c>
-      <c r="F25" t="s">
+      <c r="H25" t="s">
         <v>283</v>
       </c>
-      <c r="G25" s="2" t="s">
+      <c r="I25" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="H25" t="s">
+      <c r="J25" t="s">
         <v>260</v>
       </c>
-      <c r="I25" s="2" t="s">
+      <c r="K25" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -11791,23 +12201,31 @@
       <c r="D26">
         <v>2017</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" t="str">
+        <f t="shared" si="0"/>
+        <v>2017-01-01</v>
+      </c>
+      <c r="F26" t="str">
+        <f t="shared" si="1"/>
+        <v>2017-01-01</v>
+      </c>
+      <c r="G26" t="s">
         <v>286</v>
       </c>
-      <c r="F26" s="2" t="s">
+      <c r="H26" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="G26" s="2" t="s">
+      <c r="I26" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="H26" t="s">
+      <c r="J26" t="s">
         <v>267</v>
       </c>
-      <c r="I26" s="2" t="s">
+      <c r="K26" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -11820,24 +12238,32 @@
       <c r="D27">
         <v>2018</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" t="str">
+        <f t="shared" si="0"/>
+        <v>2011-01-01</v>
+      </c>
+      <c r="F27" t="str">
+        <f t="shared" si="1"/>
+        <v>2018-01-01</v>
+      </c>
+      <c r="G27" t="s">
         <v>290</v>
       </c>
-      <c r="F27" s="2" t="s">
+      <c r="H27" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G27" s="2" t="s">
+      <c r="I27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="H27" s="2" t="s">
+      <c r="J27" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="I27" t="s">
+      <c r="K27" t="s">
         <v>223</v>
       </c>
-      <c r="J27" s="4"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="L27" s="4"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -11850,23 +12276,31 @@
       <c r="D28">
         <v>2021</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" t="str">
+        <f t="shared" si="0"/>
+        <v>2009-01-01</v>
+      </c>
+      <c r="F28" t="str">
+        <f t="shared" si="1"/>
+        <v>2021-01-01</v>
+      </c>
+      <c r="G28" t="s">
         <v>293</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="H28" s="2" t="s">
         <v>294</v>
       </c>
-      <c r="G28" s="2" t="s">
+      <c r="I28" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="H28" s="2" t="s">
+      <c r="J28" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="I28" t="s">
+      <c r="K28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -11879,19 +12313,27 @@
       <c r="D29">
         <v>2019</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E29" t="str">
+        <f t="shared" si="0"/>
+        <v>2016-01-01</v>
+      </c>
+      <c r="F29" t="str">
+        <f t="shared" si="1"/>
+        <v>2019-01-01</v>
+      </c>
+      <c r="G29" t="s">
         <v>228</v>
       </c>
-      <c r="F29" t="s">
+      <c r="H29" t="s">
         <v>296</v>
       </c>
-      <c r="G29" t="s">
+      <c r="I29" t="s">
         <v>230</v>
       </c>
-      <c r="H29" t="s">
+      <c r="J29" t="s">
         <v>297</v>
       </c>
-      <c r="I29" t="s">
+      <c r="K29" t="s">
         <v>217</v>
       </c>
     </row>
@@ -11903,19 +12345,20 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:G50"/>
+  <dimension ref="A1:H50"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="53.28515625" customWidth="1"/>
-    <col min="5" max="5" width="21" customWidth="1"/>
+    <col min="2" max="2" width="85.7109375" customWidth="1"/>
+    <col min="4" max="4" width="20.42578125" customWidth="1"/>
+    <col min="6" max="6" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -11925,20 +12368,20 @@
       <c r="C1" t="s">
         <v>135</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>209</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>137</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>139</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -11948,43 +12391,44 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>211</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>142</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>143</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="6">
-        <v>2015</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="C3" s="6" t="s">
+        <v>948</v>
+      </c>
+      <c r="D3" s="6"/>
+      <c r="E3" t="s">
         <v>299</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>300</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>190</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11994,20 +12438,21 @@
       <c r="C4" s="6">
         <v>2008</v>
       </c>
-      <c r="D4" t="s">
+      <c r="D4" s="6"/>
+      <c r="E4" t="s">
         <v>303</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>304</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>305</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -12017,20 +12462,21 @@
       <c r="C5" s="6">
         <v>2008</v>
       </c>
-      <c r="D5" t="s">
+      <c r="D5" s="6"/>
+      <c r="E5" t="s">
         <v>303</v>
       </c>
-      <c r="E5" t="s">
+      <c r="F5" t="s">
         <v>308</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>309</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -12040,20 +12486,21 @@
       <c r="C6" s="6">
         <v>2009</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D6" s="6"/>
+      <c r="E6" t="s">
         <v>303</v>
       </c>
-      <c r="E6" t="s">
+      <c r="F6" t="s">
         <v>308</v>
       </c>
-      <c r="F6" t="s">
+      <c r="G6" t="s">
         <v>305</v>
       </c>
-      <c r="G6" t="s">
+      <c r="H6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -12063,20 +12510,21 @@
       <c r="C7" s="6">
         <v>2010</v>
       </c>
-      <c r="D7" t="s">
+      <c r="D7" s="6"/>
+      <c r="E7" t="s">
         <v>303</v>
       </c>
-      <c r="E7" t="s">
+      <c r="F7" t="s">
         <v>312</v>
       </c>
-      <c r="F7" t="s">
+      <c r="G7" t="s">
         <v>305</v>
       </c>
-      <c r="G7" t="s">
+      <c r="H7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -12086,20 +12534,21 @@
       <c r="C8" s="6">
         <v>2014</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D8" s="6"/>
+      <c r="E8" t="s">
         <v>303</v>
       </c>
-      <c r="E8" t="s">
+      <c r="F8" t="s">
         <v>312</v>
       </c>
-      <c r="F8" t="s">
+      <c r="G8" t="s">
         <v>305</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -12109,20 +12558,21 @@
       <c r="C9" s="6">
         <v>2015</v>
       </c>
-      <c r="D9" t="s">
+      <c r="D9" s="6"/>
+      <c r="E9" t="s">
         <v>303</v>
       </c>
-      <c r="E9" t="s">
+      <c r="F9" t="s">
         <v>312</v>
       </c>
-      <c r="F9" t="s">
+      <c r="G9" t="s">
         <v>190</v>
       </c>
-      <c r="G9" t="s">
+      <c r="H9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -12132,20 +12582,21 @@
       <c r="C10" s="6">
         <v>2010</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D10" s="6"/>
+      <c r="E10" t="s">
         <v>299</v>
       </c>
-      <c r="E10" t="s">
+      <c r="F10" t="s">
         <v>316</v>
       </c>
-      <c r="F10" t="s">
+      <c r="G10" t="s">
         <v>317</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -12155,20 +12606,21 @@
       <c r="C11" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D11" s="6"/>
+      <c r="E11" t="s">
         <v>299</v>
       </c>
-      <c r="E11" t="s">
+      <c r="F11" t="s">
         <v>316</v>
       </c>
-      <c r="F11" t="s">
+      <c r="G11" t="s">
         <v>295</v>
       </c>
-      <c r="G11" t="s">
+      <c r="H11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -12178,20 +12630,21 @@
       <c r="C12" s="6">
         <v>2014</v>
       </c>
-      <c r="D12" t="s">
+      <c r="D12" s="6"/>
+      <c r="E12" t="s">
         <v>299</v>
       </c>
-      <c r="E12" t="s">
+      <c r="F12" t="s">
         <v>300</v>
       </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>305</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -12201,20 +12654,21 @@
       <c r="C13" s="6">
         <v>2012</v>
       </c>
-      <c r="D13" t="s">
+      <c r="D13" s="6"/>
+      <c r="E13" t="s">
         <v>299</v>
       </c>
-      <c r="E13" t="s">
+      <c r="F13" t="s">
         <v>300</v>
       </c>
-      <c r="F13" t="s">
+      <c r="G13" t="s">
         <v>305</v>
       </c>
-      <c r="G13" t="s">
+      <c r="H13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -12224,20 +12678,21 @@
       <c r="C14" s="6">
         <v>2010</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="6"/>
+      <c r="E14" t="s">
         <v>299</v>
       </c>
-      <c r="E14" t="s">
+      <c r="F14" t="s">
         <v>300</v>
       </c>
-      <c r="F14" t="s">
+      <c r="G14" t="s">
         <v>305</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -12247,20 +12702,21 @@
       <c r="C15" s="6">
         <v>2014</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="6"/>
+      <c r="E15" t="s">
         <v>299</v>
       </c>
-      <c r="E15" t="s">
+      <c r="F15" t="s">
         <v>300</v>
       </c>
-      <c r="F15" t="s">
+      <c r="G15" t="s">
         <v>323</v>
       </c>
-      <c r="G15" t="s">
+      <c r="H15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -12270,20 +12726,21 @@
       <c r="C16" s="6">
         <v>2006</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="6"/>
+      <c r="E16" t="s">
         <v>303</v>
       </c>
-      <c r="E16" t="s">
+      <c r="F16" t="s">
         <v>326</v>
       </c>
-      <c r="F16" t="s">
+      <c r="G16" t="s">
         <v>327</v>
       </c>
-      <c r="G16" t="s">
+      <c r="H16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -12293,41 +12750,45 @@
       <c r="C17" s="6">
         <v>2013</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D17" s="6"/>
+      <c r="E17" t="s">
         <v>299</v>
       </c>
-      <c r="E17" t="s">
+      <c r="F17" t="s">
         <v>300</v>
       </c>
-      <c r="F17" t="s">
+      <c r="G17" t="s">
         <v>187</v>
       </c>
-      <c r="G17" t="s">
+      <c r="H17" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>331</v>
       </c>
-      <c r="C18" s="6"/>
-      <c r="D18" t="s">
+      <c r="C18" s="6" t="s">
+        <v>947</v>
+      </c>
+      <c r="D18" s="6"/>
+      <c r="E18" t="s">
         <v>299</v>
       </c>
-      <c r="E18" t="s">
+      <c r="F18" t="s">
         <v>332</v>
       </c>
-      <c r="F18" t="s">
+      <c r="G18" t="s">
         <v>190</v>
       </c>
-      <c r="G18" t="s">
+      <c r="H18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -12337,20 +12798,21 @@
       <c r="C19" s="6">
         <v>2017</v>
       </c>
-      <c r="D19" t="s">
+      <c r="D19" s="6"/>
+      <c r="E19" t="s">
         <v>299</v>
       </c>
-      <c r="E19" t="s">
+      <c r="F19" t="s">
         <v>332</v>
       </c>
-      <c r="F19" t="s">
+      <c r="G19" t="s">
         <v>190</v>
       </c>
-      <c r="G19" t="s">
+      <c r="H19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -12360,20 +12822,21 @@
       <c r="C20" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" s="6"/>
+      <c r="E20" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E20" t="s">
+      <c r="F20" t="s">
         <v>332</v>
       </c>
-      <c r="F20" t="s">
+      <c r="G20" t="s">
         <v>187</v>
       </c>
-      <c r="G20" t="s">
+      <c r="H20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12383,20 +12846,21 @@
       <c r="C21" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D21" s="2" t="s">
+      <c r="D21" s="6"/>
+      <c r="E21" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F21" t="s">
         <v>332</v>
       </c>
-      <c r="F21" t="s">
+      <c r="G21" t="s">
         <v>187</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12406,20 +12870,21 @@
       <c r="C22" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D22" t="s">
+      <c r="D22" s="6"/>
+      <c r="E22" t="s">
         <v>337</v>
       </c>
-      <c r="E22" t="s">
+      <c r="F22" t="s">
         <v>332</v>
       </c>
-      <c r="F22" t="s">
+      <c r="G22" t="s">
         <v>187</v>
       </c>
-      <c r="G22" t="s">
+      <c r="H22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12429,20 +12894,21 @@
       <c r="C23" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D23" t="s">
+      <c r="D23" s="6"/>
+      <c r="E23" t="s">
         <v>337</v>
       </c>
-      <c r="E23" t="s">
+      <c r="F23" t="s">
         <v>332</v>
       </c>
-      <c r="F23" t="s">
+      <c r="G23" t="s">
         <v>187</v>
       </c>
-      <c r="G23" t="s">
+      <c r="H23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12452,20 +12918,21 @@
       <c r="C24" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="D24" t="s">
+      <c r="D24" s="6"/>
+      <c r="E24" t="s">
         <v>337</v>
       </c>
-      <c r="E24" t="s">
+      <c r="F24" t="s">
         <v>332</v>
       </c>
-      <c r="F24" t="s">
+      <c r="G24" t="s">
         <v>187</v>
       </c>
-      <c r="G24" t="s">
+      <c r="H24" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12475,20 +12942,21 @@
       <c r="C25" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D25" t="s">
+      <c r="D25" s="6"/>
+      <c r="E25" t="s">
         <v>337</v>
       </c>
-      <c r="E25" t="s">
+      <c r="F25" t="s">
         <v>332</v>
       </c>
-      <c r="F25" t="s">
+      <c r="G25" t="s">
         <v>187</v>
       </c>
-      <c r="G25" t="s">
+      <c r="H25" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12498,20 +12966,21 @@
       <c r="C26" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="D26" t="s">
+      <c r="D26" s="6"/>
+      <c r="E26" t="s">
         <v>337</v>
       </c>
-      <c r="E26" t="s">
+      <c r="F26" t="s">
         <v>332</v>
       </c>
-      <c r="F26" t="s">
+      <c r="G26" t="s">
         <v>187</v>
       </c>
-      <c r="G26" t="s">
+      <c r="H26" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12521,20 +12990,21 @@
       <c r="C27" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D27" t="s">
+      <c r="D27" s="6"/>
+      <c r="E27" t="s">
         <v>337</v>
       </c>
-      <c r="E27" t="s">
+      <c r="F27" t="s">
         <v>332</v>
       </c>
-      <c r="F27" t="s">
+      <c r="G27" t="s">
         <v>187</v>
       </c>
-      <c r="G27" t="s">
+      <c r="H27" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12544,20 +13014,21 @@
       <c r="C28" s="6" t="s">
         <v>336</v>
       </c>
-      <c r="D28" t="s">
+      <c r="D28" s="6"/>
+      <c r="E28" t="s">
         <v>337</v>
       </c>
-      <c r="E28" t="s">
+      <c r="F28" t="s">
         <v>332</v>
       </c>
-      <c r="F28" t="s">
+      <c r="G28" t="s">
         <v>187</v>
       </c>
-      <c r="G28" t="s">
+      <c r="H28" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -12567,20 +13038,21 @@
       <c r="C29" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="D29" t="s">
+      <c r="D29" s="6"/>
+      <c r="E29" t="s">
         <v>337</v>
       </c>
-      <c r="E29" t="s">
+      <c r="F29" t="s">
         <v>332</v>
       </c>
-      <c r="F29" t="s">
+      <c r="G29" t="s">
         <v>187</v>
       </c>
-      <c r="G29" t="s">
+      <c r="H29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -12590,20 +13062,21 @@
       <c r="C30" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D30" s="6"/>
+      <c r="E30" t="s">
         <v>337</v>
       </c>
-      <c r="E30" t="s">
+      <c r="F30" t="s">
         <v>332</v>
       </c>
-      <c r="F30" t="s">
+      <c r="G30" t="s">
         <v>187</v>
       </c>
-      <c r="G30" t="s">
+      <c r="H30" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
@@ -12613,20 +13086,21 @@
       <c r="C31" s="6" t="s">
         <v>346</v>
       </c>
-      <c r="D31" t="s">
+      <c r="D31" s="6"/>
+      <c r="E31" t="s">
         <v>337</v>
       </c>
-      <c r="E31" t="s">
+      <c r="F31" t="s">
         <v>332</v>
       </c>
-      <c r="F31" t="s">
+      <c r="G31" t="s">
         <v>187</v>
       </c>
-      <c r="G31" t="s">
+      <c r="H31" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -12636,20 +13110,21 @@
       <c r="C32" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D32" t="s">
+      <c r="D32" s="6"/>
+      <c r="E32" t="s">
         <v>299</v>
       </c>
-      <c r="E32" t="s">
+      <c r="F32" t="s">
         <v>332</v>
       </c>
-      <c r="F32" t="s">
+      <c r="G32" t="s">
         <v>187</v>
       </c>
-      <c r="G32" t="s">
+      <c r="H32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -12659,20 +13134,21 @@
       <c r="C33" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="D33" t="s">
+      <c r="D33" s="6"/>
+      <c r="E33" t="s">
         <v>299</v>
       </c>
-      <c r="E33" t="s">
+      <c r="F33" t="s">
         <v>332</v>
       </c>
-      <c r="F33" t="s">
+      <c r="G33" t="s">
         <v>187</v>
       </c>
-      <c r="G33" t="s">
+      <c r="H33" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -12682,20 +13158,21 @@
       <c r="C34" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D34" t="s">
+      <c r="D34" s="6"/>
+      <c r="E34" t="s">
         <v>299</v>
       </c>
-      <c r="E34" t="s">
+      <c r="F34" t="s">
         <v>332</v>
       </c>
-      <c r="F34" t="s">
+      <c r="G34" t="s">
         <v>187</v>
       </c>
-      <c r="G34" t="s">
+      <c r="H34" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -12705,20 +13182,20 @@
       <c r="C35" t="s">
         <v>357</v>
       </c>
-      <c r="D35" t="s">
+      <c r="E35" t="s">
         <v>299</v>
       </c>
-      <c r="E35" t="s">
+      <c r="F35" t="s">
         <v>332</v>
       </c>
-      <c r="F35" t="s">
+      <c r="G35" t="s">
         <v>187</v>
       </c>
-      <c r="G35" t="s">
+      <c r="H35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -12728,20 +13205,20 @@
       <c r="C36" t="s">
         <v>357</v>
       </c>
-      <c r="D36" t="s">
+      <c r="E36" t="s">
         <v>299</v>
       </c>
-      <c r="E36" t="s">
+      <c r="F36" t="s">
         <v>332</v>
       </c>
-      <c r="F36" t="s">
+      <c r="G36" t="s">
         <v>187</v>
       </c>
-      <c r="G36" t="s">
+      <c r="H36" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -12751,20 +13228,20 @@
       <c r="C37" t="s">
         <v>357</v>
       </c>
-      <c r="D37" t="s">
+      <c r="E37" t="s">
         <v>299</v>
       </c>
-      <c r="E37" t="s">
+      <c r="F37" t="s">
         <v>332</v>
       </c>
-      <c r="F37" t="s">
+      <c r="G37" t="s">
         <v>187</v>
       </c>
-      <c r="G37" t="s">
+      <c r="H37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -12774,20 +13251,20 @@
       <c r="C38" t="s">
         <v>359</v>
       </c>
-      <c r="D38" t="s">
+      <c r="E38" t="s">
         <v>299</v>
       </c>
-      <c r="E38" t="s">
+      <c r="F38" t="s">
         <v>332</v>
       </c>
-      <c r="F38" t="s">
+      <c r="G38" t="s">
         <v>187</v>
       </c>
-      <c r="G38" t="s">
+      <c r="H38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -12797,20 +13274,20 @@
       <c r="C39" t="s">
         <v>360</v>
       </c>
-      <c r="D39" t="s">
+      <c r="E39" t="s">
         <v>299</v>
       </c>
-      <c r="E39" t="s">
+      <c r="F39" t="s">
         <v>332</v>
       </c>
-      <c r="F39" t="s">
+      <c r="G39" t="s">
         <v>187</v>
       </c>
-      <c r="G39" t="s">
+      <c r="H39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -12820,20 +13297,20 @@
       <c r="C40" t="s">
         <v>360</v>
       </c>
-      <c r="D40" t="s">
+      <c r="E40" t="s">
         <v>299</v>
       </c>
-      <c r="E40" t="s">
+      <c r="F40" t="s">
         <v>332</v>
       </c>
-      <c r="F40" t="s">
+      <c r="G40" t="s">
         <v>187</v>
       </c>
-      <c r="G40" t="s">
+      <c r="H40" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -12843,20 +13320,20 @@
       <c r="C41" t="s">
         <v>360</v>
       </c>
-      <c r="D41" t="s">
+      <c r="E41" t="s">
         <v>299</v>
       </c>
-      <c r="E41" t="s">
+      <c r="F41" t="s">
         <v>332</v>
       </c>
-      <c r="F41" t="s">
+      <c r="G41" t="s">
         <v>187</v>
       </c>
-      <c r="G41" t="s">
+      <c r="H41" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -12866,20 +13343,20 @@
       <c r="C42" t="s">
         <v>365</v>
       </c>
-      <c r="D42" t="s">
+      <c r="E42" t="s">
         <v>299</v>
       </c>
-      <c r="E42" t="s">
+      <c r="F42" t="s">
         <v>332</v>
       </c>
-      <c r="F42" t="s">
+      <c r="G42" t="s">
         <v>187</v>
       </c>
-      <c r="G42" t="s">
+      <c r="H42" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -12889,20 +13366,20 @@
       <c r="C43" t="s">
         <v>365</v>
       </c>
-      <c r="D43" t="s">
+      <c r="E43" t="s">
         <v>299</v>
       </c>
-      <c r="E43" t="s">
+      <c r="F43" t="s">
         <v>332</v>
       </c>
-      <c r="F43" t="s">
+      <c r="G43" t="s">
         <v>187</v>
       </c>
-      <c r="G43" t="s">
+      <c r="H43" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -12912,20 +13389,20 @@
       <c r="C44" t="s">
         <v>365</v>
       </c>
-      <c r="D44" t="s">
+      <c r="E44" t="s">
         <v>299</v>
       </c>
-      <c r="E44" t="s">
+      <c r="F44" t="s">
         <v>332</v>
       </c>
-      <c r="F44" t="s">
+      <c r="G44" t="s">
         <v>187</v>
       </c>
-      <c r="G44" t="s">
+      <c r="H44" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -12935,20 +13412,20 @@
       <c r="C45" t="s">
         <v>367</v>
       </c>
-      <c r="D45" t="s">
+      <c r="E45" t="s">
         <v>299</v>
       </c>
-      <c r="E45" t="s">
+      <c r="F45" t="s">
         <v>332</v>
       </c>
-      <c r="F45" t="s">
+      <c r="G45" t="s">
         <v>187</v>
       </c>
-      <c r="G45" t="s">
+      <c r="H45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -12958,20 +13435,20 @@
       <c r="C46" t="s">
         <v>367</v>
       </c>
-      <c r="D46" t="s">
+      <c r="E46" t="s">
         <v>299</v>
       </c>
-      <c r="E46" t="s">
+      <c r="F46" t="s">
         <v>332</v>
       </c>
-      <c r="F46" t="s">
+      <c r="G46" t="s">
         <v>187</v>
       </c>
-      <c r="G46" t="s">
+      <c r="H46" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -12981,20 +13458,20 @@
       <c r="C47" t="s">
         <v>367</v>
       </c>
-      <c r="D47" t="s">
+      <c r="E47" t="s">
         <v>299</v>
       </c>
-      <c r="E47" t="s">
+      <c r="F47" t="s">
         <v>332</v>
       </c>
-      <c r="F47" t="s">
+      <c r="G47" t="s">
         <v>187</v>
       </c>
-      <c r="G47" t="s">
+      <c r="H47" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13004,20 +13481,20 @@
       <c r="C48">
         <v>2020</v>
       </c>
-      <c r="D48" t="s">
+      <c r="E48" t="s">
         <v>299</v>
       </c>
-      <c r="E48" t="s">
+      <c r="F48" t="s">
         <v>300</v>
       </c>
-      <c r="F48" t="s">
+      <c r="G48" t="s">
         <v>187</v>
       </c>
-      <c r="G48" t="s">
+      <c r="H48" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13027,20 +13504,20 @@
       <c r="C49">
         <v>2021</v>
       </c>
-      <c r="D49" t="s">
+      <c r="E49" t="s">
         <v>299</v>
       </c>
-      <c r="E49" t="s">
+      <c r="F49" t="s">
         <v>300</v>
       </c>
-      <c r="F49" t="s">
+      <c r="G49" t="s">
         <v>187</v>
       </c>
-      <c r="G49" t="s">
+      <c r="H49" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13050,16 +13527,16 @@
       <c r="C50">
         <v>2021</v>
       </c>
-      <c r="D50" t="s">
+      <c r="E50" t="s">
         <v>299</v>
       </c>
-      <c r="E50" t="s">
+      <c r="F50" t="s">
         <v>332</v>
       </c>
-      <c r="F50" t="s">
+      <c r="G50" t="s">
         <v>187</v>
       </c>
-      <c r="G50" t="s">
+      <c r="H50" t="s">
         <v>338</v>
       </c>
     </row>

--- a/personalpage/data/CV.xlsx
+++ b/personalpage/data/CV.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pktgc\Coding\personalpage\personalpage\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pktgc\Documents\Coding\personalpage\personalpage\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4543998F-DA24-4442-8480-D580BBA1B941}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7FFE6CFD-75F0-49BA-8CAE-8D0AFA2241F9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" firstSheet="6" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="647" firstSheet="1" activeTab="9" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CONFIG" sheetId="1" r:id="rId1"/>
@@ -2973,16 +2973,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -3670,8 +3669,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:H61"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D7" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3924,7 +3923,7 @@
       <c r="C10">
         <v>2014</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>384</v>
       </c>
       <c r="E10" t="s">
@@ -4943,7 +4942,7 @@
       <c r="A53">
         <v>51</v>
       </c>
-      <c r="B53" s="5" t="s">
+      <c r="B53" s="4" t="s">
         <v>463</v>
       </c>
       <c r="C53" t="s">
@@ -4966,7 +4965,7 @@
       <c r="A54">
         <v>52</v>
       </c>
-      <c r="B54" s="5" t="s">
+      <c r="B54" s="4" t="s">
         <v>464</v>
       </c>
       <c r="C54" t="s">
@@ -4989,7 +4988,7 @@
       <c r="A55">
         <v>53</v>
       </c>
-      <c r="B55" s="5" t="s">
+      <c r="B55" s="4" t="s">
         <v>465</v>
       </c>
       <c r="C55" t="s">
@@ -5012,7 +5011,7 @@
       <c r="A56">
         <v>54</v>
       </c>
-      <c r="B56" s="5" t="s">
+      <c r="B56" s="4" t="s">
         <v>466</v>
       </c>
       <c r="C56" t="s">
@@ -5035,7 +5034,7 @@
       <c r="A57">
         <v>55</v>
       </c>
-      <c r="B57" s="5" t="s">
+      <c r="B57" s="4" t="s">
         <v>467</v>
       </c>
       <c r="C57" t="s">
@@ -5228,7 +5227,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5257,7 +5256,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5286,7 +5285,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5315,7 +5314,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5344,7 +5343,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -5373,7 +5372,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5402,7 +5401,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -5431,7 +5430,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -5556,7 +5555,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:I71"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I1" sqref="I1"/>
     </sheetView>
   </sheetViews>
@@ -5627,7 +5626,7 @@
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
@@ -5656,7 +5655,7 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
+      <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
@@ -5668,7 +5667,7 @@
       <c r="D4" t="s">
         <v>507</v>
       </c>
-      <c r="F4" s="2" t="s">
+      <c r="F4" t="s">
         <v>508</v>
       </c>
       <c r="G4" t="s">
@@ -5679,7 +5678,7 @@
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
@@ -5708,7 +5707,7 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
+      <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
@@ -5720,7 +5719,7 @@
       <c r="D6" t="s">
         <v>507</v>
       </c>
-      <c r="F6" s="2" t="s">
+      <c r="F6" t="s">
         <v>508</v>
       </c>
       <c r="G6" t="s">
@@ -5734,7 +5733,7 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
+      <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
@@ -5746,7 +5745,7 @@
       <c r="D7" t="s">
         <v>507</v>
       </c>
-      <c r="F7" s="2" t="s">
+      <c r="F7" t="s">
         <v>516</v>
       </c>
       <c r="G7" t="s">
@@ -5760,7 +5759,7 @@
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+      <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
@@ -5772,7 +5771,7 @@
       <c r="D8" t="s">
         <v>507</v>
       </c>
-      <c r="F8" s="2" t="s">
+      <c r="F8" t="s">
         <v>516</v>
       </c>
       <c r="G8" t="s">
@@ -5786,7 +5785,7 @@
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
@@ -5798,7 +5797,7 @@
       <c r="D9" t="s">
         <v>507</v>
       </c>
-      <c r="F9" s="2" t="s">
+      <c r="F9" t="s">
         <v>508</v>
       </c>
       <c r="G9" t="s">
@@ -5809,7 +5808,7 @@
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+      <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
@@ -5835,7 +5834,7 @@
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+      <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
@@ -5858,7 +5857,7 @@
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+      <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
@@ -5884,7 +5883,7 @@
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
+      <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
@@ -5913,7 +5912,7 @@
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
+      <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
@@ -5942,7 +5941,7 @@
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
+      <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
@@ -5968,7 +5967,7 @@
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="2">
+      <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
@@ -5991,7 +5990,7 @@
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="2">
+      <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
@@ -6003,7 +6002,7 @@
       <c r="D17" t="s">
         <v>507</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F17" t="s">
         <v>508</v>
       </c>
       <c r="G17" t="s">
@@ -6017,7 +6016,7 @@
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="2">
+      <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
@@ -6029,7 +6028,7 @@
       <c r="D18" t="s">
         <v>507</v>
       </c>
-      <c r="F18" s="2" t="s">
+      <c r="F18" t="s">
         <v>516</v>
       </c>
       <c r="G18" t="s">
@@ -6043,7 +6042,7 @@
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="2">
+      <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
@@ -6055,7 +6054,7 @@
       <c r="D19" t="s">
         <v>507</v>
       </c>
-      <c r="F19" s="2" t="s">
+      <c r="F19" t="s">
         <v>516</v>
       </c>
       <c r="G19" t="s">
@@ -6069,7 +6068,7 @@
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="2">
+      <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
@@ -6095,7 +6094,7 @@
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A21" s="2">
+      <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
@@ -6118,7 +6117,7 @@
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="2">
+      <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
@@ -6144,7 +6143,7 @@
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" s="2">
+      <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -6173,7 +6172,7 @@
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24" s="2">
+      <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
@@ -6202,7 +6201,7 @@
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25" s="2">
+      <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
@@ -6228,7 +6227,7 @@
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26" s="2">
+      <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
@@ -6254,7 +6253,7 @@
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A27" s="2">
+      <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
@@ -6283,7 +6282,7 @@
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28" s="2">
+      <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
@@ -6298,7 +6297,7 @@
       <c r="E28" t="s">
         <v>564</v>
       </c>
-      <c r="F28" s="2" t="s">
+      <c r="F28" t="s">
         <v>508</v>
       </c>
       <c r="G28" t="s">
@@ -6312,7 +6311,7 @@
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A29" s="2">
+      <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
@@ -6327,7 +6326,7 @@
       <c r="E29" t="s">
         <v>569</v>
       </c>
-      <c r="F29" s="2" t="s">
+      <c r="F29" t="s">
         <v>516</v>
       </c>
       <c r="G29" t="s">
@@ -6341,7 +6340,7 @@
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" s="2">
+      <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
@@ -6353,7 +6352,7 @@
       <c r="D30" t="s">
         <v>507</v>
       </c>
-      <c r="F30" s="2" t="s">
+      <c r="F30" t="s">
         <v>508</v>
       </c>
       <c r="G30" t="s">
@@ -6367,7 +6366,7 @@
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31" s="2">
+      <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
@@ -6382,7 +6381,7 @@
       <c r="E31" t="s">
         <v>574</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" t="s">
         <v>508</v>
       </c>
       <c r="G31" t="s">
@@ -6396,7 +6395,7 @@
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32" s="2">
+      <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
@@ -6422,7 +6421,7 @@
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A33" s="2">
+      <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
@@ -6451,7 +6450,7 @@
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34" s="2">
+      <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
@@ -6480,7 +6479,7 @@
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35" s="2">
+      <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
@@ -6509,7 +6508,7 @@
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="2">
+      <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
@@ -6535,7 +6534,7 @@
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" s="2">
+      <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
@@ -6564,7 +6563,7 @@
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38" s="2">
+      <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
@@ -6579,7 +6578,7 @@
       <c r="E38" t="s">
         <v>598</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" t="s">
         <v>503</v>
       </c>
       <c r="G38" t="s">
@@ -6593,7 +6592,7 @@
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39" s="2">
+      <c r="A39">
         <v>37</v>
       </c>
       <c r="B39" t="s">
@@ -6622,7 +6621,7 @@
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40" s="2">
+      <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
@@ -6651,7 +6650,7 @@
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41" s="2">
+      <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
@@ -6680,7 +6679,7 @@
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42" s="2">
+      <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
@@ -6706,7 +6705,7 @@
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A43" s="2">
+      <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
@@ -6735,7 +6734,7 @@
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A44" s="2">
+      <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
@@ -6764,7 +6763,7 @@
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A45" s="2">
+      <c r="A45">
         <v>43</v>
       </c>
       <c r="B45" t="s">
@@ -6793,7 +6792,7 @@
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="2">
+      <c r="A46">
         <v>44</v>
       </c>
       <c r="B46" t="s">
@@ -6822,7 +6821,7 @@
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A47" s="2">
+      <c r="A47">
         <v>45</v>
       </c>
       <c r="B47" t="s">
@@ -6851,7 +6850,7 @@
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="2">
+      <c r="A48">
         <v>46</v>
       </c>
       <c r="B48" t="s">
@@ -6880,7 +6879,7 @@
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A49" s="2">
+      <c r="A49">
         <v>47</v>
       </c>
       <c r="B49" t="s">
@@ -6906,7 +6905,7 @@
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A50" s="2">
+      <c r="A50">
         <v>48</v>
       </c>
       <c r="B50" t="s">
@@ -6932,7 +6931,7 @@
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A51" s="2">
+      <c r="A51">
         <v>49</v>
       </c>
       <c r="B51" t="s">
@@ -6961,7 +6960,7 @@
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A52" s="2">
+      <c r="A52">
         <v>50</v>
       </c>
       <c r="B52" t="s">
@@ -7455,7 +7454,7 @@
       <c r="A71">
         <v>69</v>
       </c>
-      <c r="B71" s="5" t="s">
+      <c r="B71" s="4" t="s">
         <v>682</v>
       </c>
       <c r="C71">
@@ -7558,10 +7557,10 @@
       <c r="E3" t="s">
         <v>689</v>
       </c>
-      <c r="G3" s="2" t="s">
+      <c r="G3" t="s">
         <v>82</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" t="s">
         <v>690</v>
       </c>
     </row>
@@ -7578,7 +7577,7 @@
       <c r="E4" t="s">
         <v>692</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" t="s">
         <v>82</v>
       </c>
       <c r="H4" t="s">
@@ -7598,10 +7597,10 @@
       <c r="E5" t="s">
         <v>694</v>
       </c>
-      <c r="G5" s="2" t="s">
+      <c r="G5" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="2" t="s">
+      <c r="H5" t="s">
         <v>690</v>
       </c>
     </row>
@@ -7618,7 +7617,7 @@
       <c r="E6" t="s">
         <v>696</v>
       </c>
-      <c r="G6" s="2" t="s">
+      <c r="G6" t="s">
         <v>82</v>
       </c>
       <c r="H6" t="s">
@@ -7638,10 +7637,10 @@
       <c r="E7" t="s">
         <v>698</v>
       </c>
-      <c r="G7" s="2" t="s">
+      <c r="G7" t="s">
         <v>699</v>
       </c>
-      <c r="H7" s="2" t="s">
+      <c r="H7" t="s">
         <v>690</v>
       </c>
     </row>
@@ -7669,21 +7668,19 @@
       <c r="A9">
         <v>7</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="B9" t="s">
         <v>703</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9">
         <v>2018</v>
       </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2" t="s">
+      <c r="E9" t="s">
         <v>704</v>
       </c>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2" t="s">
+      <c r="G9" t="s">
         <v>705</v>
       </c>
-      <c r="H9" s="2" t="s">
+      <c r="H9" t="s">
         <v>706</v>
       </c>
     </row>
@@ -7697,13 +7694,13 @@
       <c r="C10">
         <v>2018</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="D10" s="4" t="s">
         <v>708</v>
       </c>
       <c r="E10" t="s">
         <v>709</v>
       </c>
-      <c r="G10" s="2" t="s">
+      <c r="G10" t="s">
         <v>116</v>
       </c>
     </row>
@@ -7791,10 +7788,9 @@
       <c r="C3">
         <v>2010</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>713</v>
       </c>
-      <c r="E3" s="2"/>
       <c r="G3" t="s">
         <v>99</v>
       </c>
@@ -7812,10 +7808,10 @@
       <c r="C4">
         <v>2011</v>
       </c>
-      <c r="D4" s="2" t="s">
+      <c r="D4" t="s">
         <v>716</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="2" t="s">
         <v>717</v>
       </c>
       <c r="G4" t="s">
@@ -7835,11 +7831,9 @@
       <c r="C5">
         <v>2011</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>720</v>
       </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
       <c r="G5" t="s">
         <v>99</v>
       </c>
@@ -7857,10 +7851,10 @@
       <c r="C6">
         <v>2013</v>
       </c>
-      <c r="D6" s="2" t="s">
+      <c r="D6" t="s">
         <v>723</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>724</v>
       </c>
       <c r="G6" t="s">
@@ -7880,10 +7874,10 @@
       <c r="C7">
         <v>2015</v>
       </c>
-      <c r="D7" s="2" t="s">
+      <c r="D7" t="s">
         <v>727</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>728</v>
       </c>
       <c r="G7" t="s">
@@ -7903,11 +7897,9 @@
       <c r="C8">
         <v>2015</v>
       </c>
-      <c r="D8" s="2" t="s">
+      <c r="D8" t="s">
         <v>731</v>
       </c>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
       <c r="G8" t="s">
         <v>90</v>
       </c>
@@ -7925,10 +7917,10 @@
       <c r="C9">
         <v>2018</v>
       </c>
-      <c r="D9" s="2" t="s">
+      <c r="D9" t="s">
         <v>734</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="2" t="s">
         <v>735</v>
       </c>
       <c r="F9" t="s">
@@ -7951,10 +7943,9 @@
       <c r="C10">
         <v>2016</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" t="s">
         <v>739</v>
       </c>
-      <c r="E10" s="2"/>
       <c r="G10" t="s">
         <v>99</v>
       </c>
@@ -7972,11 +7963,9 @@
       <c r="C11">
         <v>2017</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D11" t="s">
         <v>742</v>
       </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
       <c r="G11" t="s">
         <v>90</v>
       </c>
@@ -7994,16 +7983,16 @@
       <c r="C12">
         <v>2018</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="D12" t="s">
         <v>745</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
         <v>746</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F12" t="s">
         <v>747</v>
       </c>
-      <c r="G12" s="2" t="s">
+      <c r="G12" t="s">
         <v>99</v>
       </c>
       <c r="H12" t="s">
@@ -8069,7 +8058,7 @@
       <c r="D15" t="s">
         <v>755</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="2" t="s">
         <v>756</v>
       </c>
       <c r="F15" t="s">
@@ -8141,7 +8130,7 @@
       <c r="C18">
         <v>2020</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>768</v>
       </c>
       <c r="F18" t="s">
@@ -8238,7 +8227,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>775</v>
       </c>
       <c r="C3">
@@ -8255,7 +8244,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>776</v>
       </c>
       <c r="C4">
@@ -8327,19 +8316,19 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0F00-000000000000}">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D13"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="28.140625" customWidth="1"/>
-    <col min="8" max="8" width="26.28515625" customWidth="1"/>
+    <col min="7" max="7" width="26.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -8349,29 +8338,29 @@
       <c r="C1" t="s">
         <v>135</v>
       </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
       <c r="E1" t="s">
-        <v>141</v>
+        <v>61</v>
       </c>
       <c r="F1" t="s">
-        <v>61</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>137</v>
+        <v>771</v>
       </c>
       <c r="H1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="I1" t="s">
-        <v>772</v>
+        <v>780</v>
       </c>
       <c r="J1" t="s">
-        <v>780</v>
-      </c>
-      <c r="K1" t="s">
         <v>781</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8381,29 +8370,29 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>60</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
+        <v>142</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>773</v>
       </c>
       <c r="H2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="I2" t="s">
-        <v>774</v>
+        <v>782</v>
       </c>
       <c r="J2" t="s">
-        <v>782</v>
-      </c>
-      <c r="K2" t="s">
         <v>783</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -8413,24 +8402,20 @@
       <c r="C3">
         <v>2014</v>
       </c>
-      <c r="D3" t="str">
-        <f>C3&amp;"-01-01"</f>
-        <v>2014-01-01</v>
+      <c r="G3" t="s">
+        <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>1</v>
-      </c>
-      <c r="I3" s="2" t="s">
         <v>785</v>
       </c>
+      <c r="I3" t="s">
+        <v>786</v>
+      </c>
       <c r="J3" t="s">
-        <v>786</v>
-      </c>
-      <c r="K3" s="2" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -8440,24 +8425,20 @@
       <c r="C4">
         <v>2014</v>
       </c>
-      <c r="D4" t="str">
-        <f t="shared" ref="D4:D13" si="0">C4&amp;"-01-01"</f>
-        <v>2014-01-01</v>
+      <c r="G4" t="s">
+        <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>1</v>
+        <v>176</v>
       </c>
       <c r="I4" t="s">
-        <v>176</v>
+        <v>789</v>
       </c>
       <c r="J4" t="s">
-        <v>789</v>
-      </c>
-      <c r="K4" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -8467,22 +8448,17 @@
       <c r="C5">
         <v>2014</v>
       </c>
-      <c r="D5" t="str">
-        <f t="shared" si="0"/>
-        <v>2014-01-01</v>
-      </c>
-      <c r="H5" t="s">
+      <c r="G5" t="s">
         <v>1</v>
       </c>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2" t="s">
+      <c r="I5" t="s">
         <v>792</v>
       </c>
-      <c r="K5" t="s">
+      <c r="J5" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8492,22 +8468,17 @@
       <c r="C6">
         <v>2014</v>
       </c>
-      <c r="D6" t="str">
-        <f t="shared" si="0"/>
-        <v>2014-01-01</v>
-      </c>
-      <c r="H6" t="s">
+      <c r="G6" t="s">
         <v>1</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2" t="s">
+      <c r="I6" t="s">
         <v>792</v>
       </c>
-      <c r="K6" t="s">
+      <c r="J6" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8517,24 +8488,20 @@
       <c r="C7">
         <v>2014</v>
       </c>
-      <c r="D7" t="str">
-        <f t="shared" si="0"/>
-        <v>2014-01-01</v>
+      <c r="G7" t="s">
+        <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>1</v>
-      </c>
-      <c r="I7" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J7" s="2" t="s">
+      <c r="I7" t="s">
         <v>786</v>
       </c>
-      <c r="K7" t="s">
+      <c r="J7" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -8544,24 +8511,20 @@
       <c r="C8">
         <v>2014</v>
       </c>
-      <c r="D8" t="str">
-        <f t="shared" si="0"/>
-        <v>2014-01-01</v>
+      <c r="G8" t="s">
+        <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>1</v>
-      </c>
-      <c r="I8" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J8" s="2" t="s">
+      <c r="I8" t="s">
         <v>786</v>
       </c>
-      <c r="K8" t="s">
+      <c r="J8" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -8571,22 +8534,17 @@
       <c r="C9">
         <v>2014</v>
       </c>
-      <c r="D9" t="str">
-        <f t="shared" si="0"/>
-        <v>2014-01-01</v>
-      </c>
-      <c r="H9" t="s">
+      <c r="G9" t="s">
         <v>1</v>
       </c>
-      <c r="I9" s="2"/>
-      <c r="J9" s="2" t="s">
+      <c r="I9" t="s">
         <v>792</v>
       </c>
-      <c r="K9" t="s">
+      <c r="J9" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -8596,106 +8554,79 @@
       <c r="C10">
         <v>2015</v>
       </c>
-      <c r="D10" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
+      <c r="G10" t="s">
+        <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>1</v>
-      </c>
-      <c r="I10" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="I10" t="s">
         <v>786</v>
       </c>
-      <c r="K10" t="s">
+      <c r="J10" t="s">
         <v>787</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>798</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11">
         <v>2015</v>
       </c>
-      <c r="D11" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" t="s">
+      <c r="G11" t="s">
         <v>1</v>
       </c>
-      <c r="I11" s="2"/>
-      <c r="J11" s="2" t="s">
+      <c r="I11" t="s">
         <v>792</v>
       </c>
-      <c r="K11" t="s">
+      <c r="J11" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>799</v>
       </c>
-      <c r="C12" s="2">
+      <c r="C12">
         <v>2015</v>
       </c>
-      <c r="D12" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" t="s">
+      <c r="G12" t="s">
         <v>1</v>
       </c>
-      <c r="I12" s="2"/>
-      <c r="J12" s="2" t="s">
+      <c r="I12" t="s">
         <v>792</v>
       </c>
-      <c r="K12" t="s">
+      <c r="J12" t="s">
         <v>790</v>
       </c>
     </row>
-    <row r="13" spans="1:11" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="16.149999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>800</v>
       </c>
-      <c r="C13" s="2">
+      <c r="C13">
         <v>2015</v>
       </c>
-      <c r="D13" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
+      <c r="G13" t="s">
+        <v>1</v>
+      </c>
       <c r="H13" t="s">
-        <v>1</v>
-      </c>
-      <c r="I13" s="2" t="s">
         <v>785</v>
       </c>
-      <c r="J13" s="2" t="s">
+      <c r="I13" t="s">
         <v>786</v>
       </c>
-      <c r="K13" t="s">
+      <c r="J13" t="s">
         <v>787</v>
       </c>
     </row>
@@ -8707,29 +8638,29 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-1000-000000000000}">
-  <dimension ref="A1:O37"/>
+  <dimension ref="A1:N37"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D37"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="68.42578125" customWidth="1"/>
-    <col min="3" max="4" width="7.42578125" customWidth="1"/>
-    <col min="5" max="5" width="7" customWidth="1"/>
-    <col min="6" max="6" width="14.42578125" customWidth="1"/>
-    <col min="7" max="7" width="31.28515625" customWidth="1"/>
-    <col min="8" max="8" width="12.42578125" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="22.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.28515625" customWidth="1"/>
-    <col min="12" max="12" width="18.140625" customWidth="1"/>
-    <col min="13" max="13" width="34.85546875" customWidth="1"/>
-    <col min="14" max="14" width="8.85546875" customWidth="1"/>
+    <col min="3" max="3" width="7.42578125" customWidth="1"/>
+    <col min="4" max="4" width="7" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" customWidth="1"/>
+    <col min="6" max="6" width="31.28515625" customWidth="1"/>
+    <col min="7" max="7" width="12.42578125" customWidth="1"/>
+    <col min="8" max="8" width="11.140625" customWidth="1"/>
+    <col min="9" max="9" width="22.85546875" customWidth="1"/>
+    <col min="10" max="10" width="11.28515625" customWidth="1"/>
+    <col min="11" max="11" width="18.140625" customWidth="1"/>
+    <col min="12" max="12" width="34.85546875" customWidth="1"/>
+    <col min="13" max="13" width="8.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -8739,41 +8670,41 @@
       <c r="C1" t="s">
         <v>135</v>
       </c>
+      <c r="D1" t="s">
+        <v>136</v>
+      </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>55</v>
       </c>
       <c r="G1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="H1" t="s">
-        <v>52</v>
+        <v>710</v>
       </c>
       <c r="I1" t="s">
-        <v>710</v>
+        <v>771</v>
       </c>
       <c r="J1" t="s">
-        <v>771</v>
+        <v>772</v>
       </c>
       <c r="K1" t="s">
-        <v>772</v>
+        <v>801</v>
       </c>
       <c r="L1" t="s">
-        <v>801</v>
+        <v>802</v>
       </c>
       <c r="M1" t="s">
-        <v>802</v>
+        <v>803</v>
       </c>
       <c r="N1" t="s">
-        <v>803</v>
-      </c>
-      <c r="O1" t="s">
         <v>804</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -8783,161 +8714,146 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
+      <c r="D2" t="s">
+        <v>141</v>
+      </c>
       <c r="E2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>54</v>
       </c>
       <c r="G2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="I2" t="s">
-        <v>57</v>
+        <v>773</v>
       </c>
       <c r="J2" t="s">
-        <v>773</v>
+        <v>774</v>
       </c>
       <c r="K2" t="s">
-        <v>774</v>
+        <v>805</v>
       </c>
       <c r="L2" t="s">
-        <v>805</v>
+        <v>806</v>
       </c>
       <c r="M2" t="s">
-        <v>806</v>
+        <v>807</v>
       </c>
       <c r="N2" t="s">
-        <v>807</v>
-      </c>
-      <c r="O2" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>809</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>2011</v>
       </c>
-      <c r="D3" s="2" t="str">
-        <f>C3&amp;"-01-01"</f>
-        <v>2011-01-01</v>
-      </c>
-      <c r="E3" s="2"/>
-      <c r="F3" s="5" t="s">
+      <c r="E3" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H3" s="6"/>
-      <c r="I3" s="3" t="s">
+      <c r="G3" s="5"/>
+      <c r="H3" s="2" t="s">
         <v>810</v>
       </c>
+      <c r="I3" t="s">
+        <v>811</v>
+      </c>
       <c r="J3" t="s">
-        <v>811</v>
-      </c>
-      <c r="K3" s="2" t="s">
         <v>146</v>
       </c>
+      <c r="K3" t="s">
+        <v>812</v>
+      </c>
       <c r="L3" t="s">
-        <v>812</v>
-      </c>
-      <c r="M3" s="2" t="s">
         <v>813</v>
       </c>
-      <c r="N3">
+      <c r="M3">
         <v>52</v>
       </c>
     </row>
-    <row r="4" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>814</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>2011</v>
       </c>
-      <c r="D4" s="2" t="str">
-        <f t="shared" ref="D4:D37" si="0">C4&amp;"-01-01"</f>
-        <v>2011-01-01</v>
-      </c>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5" t="s">
+      <c r="E4" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H4" s="6"/>
-      <c r="I4" s="3" t="s">
+      <c r="G4" s="5"/>
+      <c r="H4" s="2" t="s">
         <v>815</v>
       </c>
+      <c r="I4" t="s">
+        <v>811</v>
+      </c>
       <c r="J4" t="s">
-        <v>811</v>
-      </c>
-      <c r="K4" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="K4" t="s">
+        <v>816</v>
+      </c>
       <c r="L4" t="s">
-        <v>816</v>
-      </c>
-      <c r="M4" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="N4" s="2" t="s">
+      <c r="M4" t="s">
         <v>818</v>
       </c>
-      <c r="O4" s="6" t="s">
+      <c r="N4" s="5" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>820</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2011</v>
       </c>
-      <c r="D5" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2011-01-01</v>
-      </c>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H5" s="6"/>
-      <c r="I5" s="3" t="s">
+      <c r="G5" s="5"/>
+      <c r="H5" s="2" t="s">
         <v>821</v>
       </c>
+      <c r="I5" t="s">
+        <v>811</v>
+      </c>
       <c r="J5" t="s">
-        <v>811</v>
-      </c>
-      <c r="K5" s="2" t="s">
         <v>205</v>
       </c>
+      <c r="K5" t="s">
+        <v>816</v>
+      </c>
       <c r="L5" t="s">
-        <v>816</v>
-      </c>
-      <c r="M5" s="2" t="s">
         <v>817</v>
       </c>
-      <c r="N5" s="2" t="s">
+      <c r="M5" t="s">
         <v>822</v>
       </c>
-      <c r="O5" s="6" t="s">
+      <c r="N5" s="5" t="s">
         <v>819</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -8947,28 +8863,24 @@
       <c r="C6">
         <v>2011</v>
       </c>
-      <c r="D6" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2011-01-01</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="E6" t="s">
         <v>824</v>
       </c>
-      <c r="H6" s="6"/>
+      <c r="G6" s="5"/>
+      <c r="I6" t="s">
+        <v>811</v>
+      </c>
       <c r="J6" t="s">
-        <v>811</v>
+        <v>176</v>
       </c>
       <c r="K6" t="s">
-        <v>176</v>
+        <v>825</v>
       </c>
       <c r="L6" t="s">
-        <v>825</v>
-      </c>
-      <c r="M6" s="2" t="s">
         <v>826</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -8978,35 +8890,30 @@
       <c r="C7">
         <v>2013</v>
       </c>
-      <c r="D7" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2013-01-01</v>
+      <c r="E7" t="s">
+        <v>828</v>
       </c>
       <c r="F7" t="s">
-        <v>828</v>
-      </c>
-      <c r="G7" t="s">
         <v>829</v>
       </c>
-      <c r="H7" s="6"/>
-      <c r="J7" t="s">
+      <c r="G7" s="5"/>
+      <c r="I7" t="s">
         <v>830</v>
       </c>
-      <c r="K7" s="2"/>
+      <c r="K7" t="s">
+        <v>831</v>
+      </c>
       <c r="L7" t="s">
-        <v>831</v>
-      </c>
-      <c r="M7" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="N7">
+      <c r="M7">
         <v>44</v>
       </c>
-      <c r="O7" t="s">
+      <c r="N7" t="s">
         <v>833</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -9016,32 +8923,27 @@
       <c r="C8">
         <v>2014</v>
       </c>
-      <c r="D8" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2014-01-01</v>
-      </c>
-      <c r="F8" s="5" t="s">
+      <c r="E8" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H8" s="6"/>
-      <c r="I8" s="3" t="s">
+      <c r="G8" s="5"/>
+      <c r="H8" s="2" t="s">
         <v>835</v>
       </c>
-      <c r="J8" t="s">
+      <c r="I8" t="s">
         <v>836</v>
       </c>
-      <c r="K8" s="2"/>
+      <c r="K8" t="s">
+        <v>816</v>
+      </c>
       <c r="L8" t="s">
-        <v>816</v>
-      </c>
-      <c r="M8" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="N8" t="s">
+      <c r="M8" t="s">
         <v>838</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -9051,66 +8953,58 @@
       <c r="C9">
         <v>2015</v>
       </c>
-      <c r="D9" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
+      <c r="E9" t="s">
+        <v>806</v>
       </c>
       <c r="F9" t="s">
-        <v>806</v>
-      </c>
-      <c r="G9" t="s">
         <v>839</v>
       </c>
-      <c r="H9" s="6" t="s">
+      <c r="G9" s="5" t="s">
         <v>840</v>
       </c>
-      <c r="J9" t="s">
+      <c r="I9" t="s">
         <v>841</v>
       </c>
+      <c r="K9" t="s">
+        <v>802</v>
+      </c>
       <c r="L9" t="s">
-        <v>802</v>
-      </c>
-      <c r="M9" t="s">
         <v>842</v>
       </c>
-      <c r="N9">
+      <c r="M9">
         <v>145</v>
       </c>
-      <c r="O9" t="s">
+      <c r="N9" t="s">
         <v>843</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>844</v>
       </c>
-      <c r="C10" s="2">
+      <c r="C10">
         <v>2015</v>
       </c>
-      <c r="D10" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="F10" t="s">
+      <c r="E10" t="s">
         <v>845</v>
       </c>
-      <c r="H10" s="6" t="s">
+      <c r="G10" s="5" t="s">
         <v>846</v>
       </c>
-      <c r="J10" t="s">
+      <c r="I10" t="s">
         <v>847</v>
       </c>
+      <c r="K10" t="s">
+        <v>848</v>
+      </c>
       <c r="L10" t="s">
-        <v>848</v>
-      </c>
-      <c r="M10" s="2" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -9120,32 +9014,27 @@
       <c r="C11">
         <v>2015</v>
       </c>
-      <c r="D11" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H11" s="6"/>
-      <c r="I11" s="3" t="s">
+      <c r="G11" s="5"/>
+      <c r="H11" s="2" t="s">
         <v>851</v>
       </c>
-      <c r="J11" t="s">
+      <c r="I11" t="s">
         <v>836</v>
       </c>
-      <c r="K11" s="2"/>
+      <c r="K11" t="s">
+        <v>816</v>
+      </c>
       <c r="L11" t="s">
-        <v>816</v>
-      </c>
-      <c r="M11" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="N11" t="s">
+      <c r="M11" t="s">
         <v>852</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -9155,32 +9044,27 @@
       <c r="C12">
         <v>2015</v>
       </c>
-      <c r="D12" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="F12" s="5" t="s">
+      <c r="E12" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H12" s="6"/>
-      <c r="I12" s="3" t="s">
+      <c r="G12" s="5"/>
+      <c r="H12" s="2" t="s">
         <v>854</v>
       </c>
-      <c r="J12" t="s">
+      <c r="I12" t="s">
         <v>836</v>
       </c>
-      <c r="K12" s="2"/>
+      <c r="K12" t="s">
+        <v>816</v>
+      </c>
       <c r="L12" t="s">
-        <v>816</v>
-      </c>
-      <c r="M12" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="N12" t="s">
+      <c r="M12" t="s">
         <v>855</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -9190,32 +9074,27 @@
       <c r="C13">
         <v>2015</v>
       </c>
-      <c r="D13" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="F13" s="5" t="s">
+      <c r="E13" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="3" t="s">
+      <c r="G13" s="5"/>
+      <c r="H13" s="2" t="s">
         <v>857</v>
       </c>
-      <c r="J13" t="s">
+      <c r="I13" t="s">
         <v>836</v>
       </c>
-      <c r="K13" s="2"/>
+      <c r="K13" t="s">
+        <v>816</v>
+      </c>
       <c r="L13" t="s">
-        <v>816</v>
-      </c>
-      <c r="M13" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="N13" t="s">
+      <c r="M13" t="s">
         <v>858</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -9225,28 +9104,24 @@
       <c r="C14">
         <v>2015</v>
       </c>
-      <c r="D14" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="F14" t="s">
+      <c r="E14" t="s">
         <v>824</v>
       </c>
-      <c r="H14" s="6"/>
+      <c r="G14" s="5"/>
+      <c r="I14" t="s">
+        <v>860</v>
+      </c>
       <c r="J14" t="s">
-        <v>860</v>
+        <v>176</v>
       </c>
       <c r="K14" t="s">
-        <v>176</v>
+        <v>825</v>
       </c>
       <c r="L14" t="s">
-        <v>825</v>
-      </c>
-      <c r="M14" s="2" t="s">
         <v>861</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -9256,35 +9131,30 @@
       <c r="C15">
         <v>2015</v>
       </c>
-      <c r="D15" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
+      <c r="E15" t="s">
+        <v>828</v>
       </c>
       <c r="F15" t="s">
-        <v>828</v>
-      </c>
-      <c r="G15" t="s">
         <v>863</v>
       </c>
-      <c r="H15" s="6"/>
-      <c r="J15" t="s">
+      <c r="G15" s="5"/>
+      <c r="I15" t="s">
         <v>864</v>
       </c>
-      <c r="K15" s="2"/>
+      <c r="K15" t="s">
+        <v>831</v>
+      </c>
       <c r="L15" t="s">
-        <v>831</v>
-      </c>
-      <c r="M15" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="N15">
+      <c r="M15">
         <v>50</v>
       </c>
-      <c r="O15" t="s">
+      <c r="N15" t="s">
         <v>865</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -9294,35 +9164,30 @@
       <c r="C16">
         <v>2015</v>
       </c>
-      <c r="D16" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
+      <c r="E16" t="s">
+        <v>828</v>
       </c>
       <c r="F16" t="s">
-        <v>828</v>
-      </c>
-      <c r="G16" t="s">
         <v>867</v>
       </c>
-      <c r="H16" s="6"/>
-      <c r="J16" t="s">
+      <c r="G16" s="5"/>
+      <c r="I16" t="s">
         <v>868</v>
       </c>
-      <c r="K16" s="2"/>
+      <c r="K16" t="s">
+        <v>831</v>
+      </c>
       <c r="L16" t="s">
-        <v>831</v>
-      </c>
-      <c r="M16" s="2" t="s">
         <v>832</v>
       </c>
-      <c r="N16">
+      <c r="M16">
         <v>50</v>
       </c>
-      <c r="O16" t="s">
+      <c r="N16" t="s">
         <v>869</v>
       </c>
     </row>
-    <row r="17" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -9332,32 +9197,27 @@
       <c r="C17">
         <v>2016</v>
       </c>
-      <c r="D17" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2016-01-01</v>
-      </c>
-      <c r="F17" s="5" t="s">
+      <c r="E17" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H17" s="6"/>
+      <c r="G17" s="5"/>
+      <c r="H17" t="s">
+        <v>871</v>
+      </c>
       <c r="I17" t="s">
-        <v>871</v>
-      </c>
-      <c r="J17" t="s">
         <v>836</v>
       </c>
-      <c r="K17" s="2"/>
+      <c r="K17" t="s">
+        <v>816</v>
+      </c>
       <c r="L17" t="s">
-        <v>816</v>
-      </c>
-      <c r="M17" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="N17" t="s">
+      <c r="M17" t="s">
         <v>872</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -9367,29 +9227,24 @@
       <c r="C18">
         <v>2016</v>
       </c>
-      <c r="D18" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2016-01-01</v>
-      </c>
-      <c r="F18" t="s">
+      <c r="E18" t="s">
         <v>873</v>
       </c>
-      <c r="H18" s="6">
+      <c r="G18" s="5">
         <v>1612.0343499999999</v>
       </c>
-      <c r="J18" s="2" t="s">
+      <c r="I18" t="s">
         <v>874</v>
       </c>
-      <c r="K18" s="2"/>
+      <c r="K18" t="s">
+        <v>848</v>
+      </c>
       <c r="L18" t="s">
-        <v>848</v>
-      </c>
-      <c r="M18" s="2" t="s">
         <v>849</v>
       </c>
-      <c r="N18" s="4"/>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="M18" s="3"/>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -9399,69 +9254,59 @@
       <c r="C19">
         <v>2016</v>
       </c>
-      <c r="D19" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2016-01-01</v>
+      <c r="E19" t="s">
+        <v>806</v>
       </c>
       <c r="F19" t="s">
-        <v>806</v>
-      </c>
-      <c r="G19" t="s">
         <v>876</v>
       </c>
-      <c r="H19" s="6" t="s">
+      <c r="G19" s="5" t="s">
         <v>877</v>
       </c>
-      <c r="J19" s="2" t="s">
+      <c r="I19" t="s">
         <v>878</v>
       </c>
+      <c r="K19" t="s">
+        <v>802</v>
+      </c>
       <c r="L19" t="s">
-        <v>802</v>
-      </c>
-      <c r="M19" t="s">
         <v>879</v>
       </c>
-      <c r="N19">
+      <c r="M19">
         <v>144</v>
       </c>
-      <c r="O19" t="s">
+      <c r="N19" t="s">
         <v>880</v>
       </c>
     </row>
-    <row r="20" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>881</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20">
         <v>2017</v>
       </c>
-      <c r="D20" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2017-01-01</v>
-      </c>
-      <c r="E20" s="2"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="4" t="s">
         <v>111</v>
       </c>
-      <c r="H20" s="6"/>
-      <c r="J20" t="s">
+      <c r="G20" s="5"/>
+      <c r="I20" t="s">
         <v>836</v>
       </c>
-      <c r="K20" s="2"/>
+      <c r="K20" t="s">
+        <v>816</v>
+      </c>
       <c r="L20" t="s">
-        <v>816</v>
-      </c>
-      <c r="M20" s="2" t="s">
         <v>837</v>
       </c>
-      <c r="N20" s="2" t="s">
+      <c r="M20" t="s">
         <v>882</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -9471,27 +9316,23 @@
       <c r="C21">
         <v>2017</v>
       </c>
-      <c r="D21" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2017-01-01</v>
-      </c>
-      <c r="F21" t="s">
+      <c r="E21" t="s">
         <v>845</v>
       </c>
-      <c r="H21" s="6" t="s">
+      <c r="G21" s="5" t="s">
         <v>883</v>
       </c>
-      <c r="J21" t="s">
+      <c r="I21" t="s">
         <v>884</v>
       </c>
+      <c r="K21" t="s">
+        <v>831</v>
+      </c>
       <c r="L21" t="s">
-        <v>831</v>
-      </c>
-      <c r="M21" t="s">
         <v>885</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -9501,36 +9342,32 @@
       <c r="C22">
         <v>2017</v>
       </c>
-      <c r="D22" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2017-01-01</v>
+      <c r="E22" t="s">
+        <v>806</v>
       </c>
       <c r="F22" t="s">
-        <v>806</v>
-      </c>
-      <c r="G22" t="s">
         <v>887</v>
       </c>
-      <c r="H22" s="6">
+      <c r="G22" s="5">
         <v>1511.01315</v>
       </c>
-      <c r="J22" t="s">
+      <c r="I22" t="s">
         <v>864</v>
       </c>
+      <c r="K22" t="s">
+        <v>802</v>
+      </c>
       <c r="L22" t="s">
-        <v>802</v>
-      </c>
-      <c r="M22" t="s">
         <v>888</v>
       </c>
-      <c r="N22">
+      <c r="M22">
         <v>82</v>
       </c>
-      <c r="O22" t="s">
+      <c r="N22" t="s">
         <v>889</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -9540,34 +9377,30 @@
       <c r="C23">
         <v>2018</v>
       </c>
-      <c r="D23" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2018-01-01</v>
+      <c r="E23" t="s">
+        <v>828</v>
       </c>
       <c r="F23" t="s">
-        <v>828</v>
-      </c>
-      <c r="G23" t="s">
         <v>891</v>
       </c>
-      <c r="H23" s="6"/>
-      <c r="J23" t="s">
+      <c r="G23" s="5"/>
+      <c r="I23" t="s">
         <v>892</v>
       </c>
+      <c r="K23" t="s">
+        <v>831</v>
+      </c>
       <c r="L23" t="s">
-        <v>831</v>
-      </c>
-      <c r="M23" t="s">
         <v>893</v>
       </c>
-      <c r="N23">
+      <c r="M23">
         <v>99</v>
       </c>
-      <c r="O23" t="s">
+      <c r="N23" t="s">
         <v>894</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -9577,36 +9410,32 @@
       <c r="C24">
         <v>2018</v>
       </c>
-      <c r="D24" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2018-01-01</v>
+      <c r="E24" t="s">
+        <v>806</v>
       </c>
       <c r="F24" t="s">
-        <v>806</v>
-      </c>
-      <c r="G24" t="s">
         <v>896</v>
       </c>
-      <c r="H24" s="6">
+      <c r="G24" s="5">
         <v>1701.05529</v>
       </c>
-      <c r="J24" t="s">
+      <c r="I24" t="s">
         <v>897</v>
       </c>
+      <c r="K24" t="s">
+        <v>802</v>
+      </c>
       <c r="L24" t="s">
-        <v>802</v>
+        <v>153</v>
       </c>
       <c r="M24" t="s">
-        <v>153</v>
+        <v>898</v>
       </c>
       <c r="N24" t="s">
-        <v>898</v>
-      </c>
-      <c r="O24" t="s">
         <v>899</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -9616,36 +9445,32 @@
       <c r="C25">
         <v>2018</v>
       </c>
-      <c r="D25" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2018-01-01</v>
+      <c r="E25" t="s">
+        <v>806</v>
       </c>
       <c r="F25" t="s">
-        <v>806</v>
-      </c>
-      <c r="G25" t="s">
         <v>901</v>
       </c>
-      <c r="H25" s="6">
+      <c r="G25" s="5">
         <v>1601.0042100000001</v>
       </c>
-      <c r="J25" t="s">
+      <c r="I25" t="s">
         <v>864</v>
       </c>
+      <c r="K25" t="s">
+        <v>802</v>
+      </c>
       <c r="L25" t="s">
-        <v>802</v>
+        <v>902</v>
       </c>
       <c r="M25" t="s">
-        <v>902</v>
+        <v>903</v>
       </c>
       <c r="N25" t="s">
-        <v>903</v>
-      </c>
-      <c r="O25" t="s">
         <v>904</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -9655,36 +9480,32 @@
       <c r="C26">
         <v>2018</v>
       </c>
-      <c r="D26" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2018-01-01</v>
+      <c r="E26" t="s">
+        <v>806</v>
       </c>
       <c r="F26" t="s">
-        <v>806</v>
-      </c>
-      <c r="G26" t="s">
         <v>906</v>
       </c>
-      <c r="H26" s="6" t="s">
+      <c r="G26" s="5" t="s">
         <v>907</v>
       </c>
-      <c r="J26" t="s">
+      <c r="I26" t="s">
         <v>908</v>
       </c>
+      <c r="K26" t="s">
+        <v>802</v>
+      </c>
       <c r="L26" t="s">
-        <v>802</v>
-      </c>
-      <c r="M26" t="s">
         <v>888</v>
       </c>
-      <c r="N26">
+      <c r="M26">
         <v>94</v>
       </c>
-      <c r="O26" t="s">
+      <c r="N26" t="s">
         <v>909</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -9694,37 +9515,32 @@
       <c r="C27">
         <v>2019</v>
       </c>
-      <c r="D27" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-01</v>
+      <c r="E27" t="s">
+        <v>806</v>
       </c>
       <c r="F27" t="s">
-        <v>806</v>
-      </c>
-      <c r="G27" t="s">
         <v>910</v>
       </c>
-      <c r="H27" s="6" t="s">
+      <c r="G27" s="5" t="s">
         <v>911</v>
       </c>
-      <c r="J27" t="s">
+      <c r="I27" t="s">
         <v>892</v>
       </c>
-      <c r="K27" s="2"/>
+      <c r="K27" t="s">
+        <v>802</v>
+      </c>
       <c r="L27" t="s">
-        <v>802</v>
-      </c>
-      <c r="M27" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="N27" s="2">
+      <c r="M27">
         <v>63</v>
       </c>
-      <c r="O27" s="2" t="s">
+      <c r="N27" t="s">
         <v>912</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -9734,27 +9550,23 @@
       <c r="C28">
         <v>2019</v>
       </c>
-      <c r="D28" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-01</v>
-      </c>
-      <c r="F28" t="s">
+      <c r="E28" t="s">
         <v>828</v>
       </c>
+      <c r="H28" t="s">
+        <v>914</v>
+      </c>
       <c r="I28" t="s">
-        <v>914</v>
-      </c>
-      <c r="J28" t="s">
         <v>915</v>
       </c>
+      <c r="K28" t="s">
+        <v>831</v>
+      </c>
       <c r="L28" t="s">
-        <v>831</v>
-      </c>
-      <c r="M28" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -9764,27 +9576,23 @@
       <c r="C29">
         <v>2019</v>
       </c>
-      <c r="D29" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-01</v>
-      </c>
-      <c r="F29" t="s">
+      <c r="E29" t="s">
         <v>828</v>
       </c>
+      <c r="H29" t="s">
+        <v>918</v>
+      </c>
       <c r="I29" t="s">
-        <v>918</v>
-      </c>
-      <c r="J29" t="s">
         <v>919</v>
       </c>
+      <c r="K29" t="s">
+        <v>831</v>
+      </c>
       <c r="L29" t="s">
-        <v>831</v>
-      </c>
-      <c r="M29" t="s">
         <v>916</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
@@ -9794,57 +9602,49 @@
       <c r="C30">
         <v>2019</v>
       </c>
-      <c r="D30" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-01</v>
+      <c r="E30" t="s">
+        <v>828</v>
       </c>
       <c r="F30" t="s">
-        <v>828</v>
-      </c>
-      <c r="G30" t="s">
         <v>921</v>
       </c>
-      <c r="J30" t="s">
+      <c r="I30" t="s">
         <v>922</v>
       </c>
+      <c r="K30" t="s">
+        <v>831</v>
+      </c>
       <c r="L30" t="s">
-        <v>831</v>
-      </c>
-      <c r="M30" t="s">
         <v>923</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="4" t="s">
         <v>924</v>
       </c>
       <c r="C31">
         <v>2019</v>
       </c>
-      <c r="D31" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2019-01-01</v>
-      </c>
-      <c r="F31" t="s">
+      <c r="E31" t="s">
         <v>828</v>
       </c>
+      <c r="H31" t="s">
+        <v>925</v>
+      </c>
       <c r="I31" t="s">
-        <v>925</v>
-      </c>
-      <c r="J31" t="s">
         <v>926</v>
       </c>
+      <c r="K31" t="s">
+        <v>831</v>
+      </c>
       <c r="L31" t="s">
-        <v>831</v>
-      </c>
-      <c r="M31" s="2" t="s">
         <v>927</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
@@ -9854,36 +9654,32 @@
       <c r="C32">
         <v>2020</v>
       </c>
-      <c r="D32" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-01-01</v>
-      </c>
-      <c r="F32" t="s">
+      <c r="E32" t="s">
         <v>806</v>
       </c>
-      <c r="G32" s="5" t="s">
+      <c r="F32" s="4" t="s">
         <v>929</v>
       </c>
-      <c r="H32">
+      <c r="G32">
         <v>1902.0316600000001</v>
       </c>
-      <c r="J32" t="s">
+      <c r="I32" t="s">
         <v>930</v>
       </c>
+      <c r="K32" t="s">
+        <v>802</v>
+      </c>
       <c r="L32" t="s">
-        <v>802</v>
-      </c>
-      <c r="M32" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="N32" t="s">
+      <c r="M32" t="s">
         <v>931</v>
       </c>
-      <c r="O32">
+      <c r="N32">
         <v>112105</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
@@ -9893,33 +9689,29 @@
       <c r="C33">
         <v>2020</v>
       </c>
-      <c r="D33" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-01-01</v>
+      <c r="E33" t="s">
+        <v>806</v>
       </c>
       <c r="F33" t="s">
-        <v>806</v>
-      </c>
-      <c r="G33" t="s">
         <v>933</v>
       </c>
-      <c r="J33" t="s">
+      <c r="I33" t="s">
         <v>922</v>
       </c>
+      <c r="K33" t="s">
+        <v>802</v>
+      </c>
       <c r="L33" t="s">
-        <v>802</v>
-      </c>
-      <c r="M33" t="s">
         <v>934</v>
       </c>
+      <c r="M33">
+        <v>89</v>
+      </c>
       <c r="N33">
-        <v>89</v>
-      </c>
-      <c r="O33">
         <v>103157</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
@@ -9929,66 +9721,58 @@
       <c r="C34">
         <v>2020</v>
       </c>
-      <c r="D34" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2020-01-01</v>
-      </c>
-      <c r="F34" t="s">
+      <c r="E34" t="s">
         <v>845</v>
       </c>
-      <c r="H34" s="5">
+      <c r="G34" s="4">
         <v>2002.0548799999999</v>
       </c>
-      <c r="J34" t="s">
+      <c r="I34" t="s">
         <v>926</v>
       </c>
+      <c r="K34" t="s">
+        <v>848</v>
+      </c>
       <c r="L34" t="s">
-        <v>848</v>
-      </c>
-      <c r="M34" t="s">
         <v>849</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:14" ht="30" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="4" t="s">
         <v>935</v>
       </c>
       <c r="C35">
         <v>2021</v>
       </c>
-      <c r="D35" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-01-01</v>
+      <c r="E35" t="s">
+        <v>806</v>
       </c>
       <c r="F35" t="s">
-        <v>806</v>
-      </c>
-      <c r="G35" t="s">
         <v>936</v>
       </c>
-      <c r="H35">
+      <c r="G35">
         <v>1909.01189</v>
       </c>
-      <c r="J35" t="s">
+      <c r="I35" t="s">
         <v>919</v>
       </c>
+      <c r="K35" t="s">
+        <v>802</v>
+      </c>
       <c r="L35" t="s">
-        <v>802</v>
-      </c>
-      <c r="M35" s="2" t="s">
         <v>937</v>
       </c>
-      <c r="N35">
+      <c r="M35">
         <v>149</v>
       </c>
-      <c r="O35" t="s">
+      <c r="N35" t="s">
         <v>938</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -9998,36 +9782,32 @@
       <c r="C36">
         <v>2021</v>
       </c>
-      <c r="D36" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-01-01</v>
+      <c r="E36" t="s">
+        <v>806</v>
       </c>
       <c r="F36" t="s">
-        <v>806</v>
-      </c>
-      <c r="G36" t="s">
         <v>940</v>
       </c>
-      <c r="H36">
+      <c r="G36">
         <v>2007.10139</v>
       </c>
-      <c r="J36" t="s">
+      <c r="I36" t="s">
         <v>915</v>
       </c>
+      <c r="K36" t="s">
+        <v>802</v>
+      </c>
       <c r="L36" t="s">
-        <v>802</v>
+        <v>400</v>
       </c>
       <c r="M36" t="s">
-        <v>400</v>
-      </c>
-      <c r="N36" t="s">
         <v>941</v>
       </c>
-      <c r="O36">
+      <c r="N36">
         <v>112406</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -10037,38 +9817,34 @@
       <c r="C37">
         <v>2021</v>
       </c>
-      <c r="D37" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>2021-01-01</v>
-      </c>
-      <c r="F37" t="s">
+      <c r="E37" t="s">
         <v>828</v>
       </c>
+      <c r="H37" t="s">
+        <v>943</v>
+      </c>
       <c r="I37" t="s">
-        <v>943</v>
-      </c>
-      <c r="J37" t="s">
         <v>944</v>
       </c>
+      <c r="K37" t="s">
+        <v>831</v>
+      </c>
       <c r="L37" t="s">
-        <v>831</v>
-      </c>
-      <c r="M37" t="s">
         <v>945</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I3" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
-    <hyperlink ref="I4" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
-    <hyperlink ref="I5" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
-    <hyperlink ref="I8" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
-    <hyperlink ref="I11" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
-    <hyperlink ref="I12" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
-    <hyperlink ref="I13" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
-    <hyperlink ref="I28" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
-    <hyperlink ref="I29" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
-    <hyperlink ref="I31" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
+    <hyperlink ref="H3" r:id="rId1" xr:uid="{00000000-0004-0000-1000-000000000000}"/>
+    <hyperlink ref="H4" r:id="rId2" xr:uid="{00000000-0004-0000-1000-000001000000}"/>
+    <hyperlink ref="H5" r:id="rId3" xr:uid="{00000000-0004-0000-1000-000002000000}"/>
+    <hyperlink ref="H8" r:id="rId4" xr:uid="{00000000-0004-0000-1000-000003000000}"/>
+    <hyperlink ref="H11" r:id="rId5" xr:uid="{00000000-0004-0000-1000-000004000000}"/>
+    <hyperlink ref="H12" r:id="rId6" xr:uid="{00000000-0004-0000-1000-000005000000}"/>
+    <hyperlink ref="H13" r:id="rId7" xr:uid="{00000000-0004-0000-1000-000006000000}"/>
+    <hyperlink ref="H28" r:id="rId8" xr:uid="{00000000-0004-0000-1000-000007000000}"/>
+    <hyperlink ref="H29" r:id="rId9" xr:uid="{00000000-0004-0000-1000-000008000000}"/>
+    <hyperlink ref="H31" r:id="rId10" xr:uid="{00000000-0004-0000-1000-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
   <pageSetup firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -10120,10 +9896,10 @@
       <c r="B3" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
@@ -10134,10 +9910,10 @@
       <c r="B4" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="C4" t="s">
         <v>55</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="2" t="s">
         <v>56</v>
       </c>
     </row>
@@ -10148,7 +9924,7 @@
       <c r="B5" t="s">
         <v>57</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="C5" t="s">
         <v>58</v>
       </c>
       <c r="D5" t="s">
@@ -10162,7 +9938,7 @@
       <c r="B6" t="s">
         <v>60</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" t="s">
         <v>61</v>
       </c>
       <c r="D6" t="s">
@@ -10176,10 +9952,10 @@
       <c r="B7" t="s">
         <v>62</v>
       </c>
-      <c r="C7" s="2" t="s">
+      <c r="C7" t="s">
         <v>63</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="2" t="s">
         <v>64</v>
       </c>
     </row>
@@ -10190,10 +9966,10 @@
       <c r="B8" t="s">
         <v>65</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" t="s">
         <v>66</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="2" t="s">
         <v>67</v>
       </c>
     </row>
@@ -10240,16 +10016,16 @@
       <c r="A2" t="s">
         <v>47</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" t="s">
         <v>71</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="E2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -10260,13 +10036,13 @@
       <c r="B3" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" t="s">
         <v>39</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>75</v>
       </c>
     </row>
@@ -10376,7 +10152,7 @@
       <c r="E10" t="s">
         <v>90</v>
       </c>
-      <c r="F10" s="4"/>
+      <c r="F10" s="3"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
@@ -10394,7 +10170,7 @@
       <c r="E11" t="s">
         <v>93</v>
       </c>
-      <c r="H11" s="4"/>
+      <c r="H11" s="3"/>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -10409,7 +10185,7 @@
       <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E12" s="2" t="s">
+      <c r="E12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -10426,7 +10202,7 @@
       <c r="D13" t="s">
         <v>32</v>
       </c>
-      <c r="E13" s="2" t="s">
+      <c r="E13" t="s">
         <v>99</v>
       </c>
     </row>
@@ -10499,7 +10275,7 @@
       <c r="C18" t="s">
         <v>110</v>
       </c>
-      <c r="D18" s="2" t="s">
+      <c r="D18" t="s">
         <v>39</v>
       </c>
       <c r="E18" t="s">
@@ -10530,7 +10306,7 @@
       <c r="C20" t="s">
         <v>115</v>
       </c>
-      <c r="D20" s="2" t="s">
+      <c r="D20" t="s">
         <v>29</v>
       </c>
       <c r="E20" t="s">
@@ -10545,7 +10321,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B6" sqref="B6"/>
@@ -10558,7 +10334,7 @@
     <col min="6" max="6" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>43</v>
       </c>
@@ -10572,7 +10348,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -10585,9 +10361,8 @@
       <c r="D2" t="s">
         <v>119</v>
       </c>
-      <c r="F2" s="2"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -10601,7 +10376,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -10615,7 +10390,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -10629,7 +10404,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -10643,7 +10418,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -10728,7 +10503,7 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>144</v>
       </c>
       <c r="C3">
@@ -10748,7 +10523,7 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>148</v>
       </c>
       <c r="C4">
@@ -10768,13 +10543,13 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>151</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2016</v>
       </c>
-      <c r="D5" s="2" t="s">
+      <c r="D5" t="s">
         <v>152</v>
       </c>
       <c r="F5" t="s">
@@ -10788,7 +10563,7 @@
       <c r="A6">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" t="s">
         <v>155</v>
       </c>
       <c r="C6" t="s">
@@ -11012,7 +10787,7 @@
       <c r="D6">
         <v>2016</v>
       </c>
-      <c r="E6" s="5" t="s">
+      <c r="E6" s="4" t="s">
         <v>182</v>
       </c>
       <c r="G6" t="s">
@@ -11098,16 +10873,16 @@
       <c r="A3">
         <v>1</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" t="s">
         <v>185</v>
       </c>
-      <c r="C3" s="2">
+      <c r="C3">
         <v>2010</v>
       </c>
       <c r="D3">
         <v>2014</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" t="s">
         <v>186</v>
       </c>
       <c r="G3" t="s">
@@ -11121,16 +10896,16 @@
       <c r="A4">
         <v>2</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" t="s">
         <v>188</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>2014</v>
       </c>
       <c r="D4">
         <v>2015</v>
       </c>
-      <c r="E4" s="2" t="s">
+      <c r="E4" t="s">
         <v>189</v>
       </c>
       <c r="G4" t="s">
@@ -11144,16 +10919,16 @@
       <c r="A5">
         <v>3</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" t="s">
         <v>191</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5">
         <v>2012</v>
       </c>
       <c r="D5">
         <v>2014</v>
       </c>
-      <c r="E5" s="2" t="s">
+      <c r="E5" t="s">
         <v>192</v>
       </c>
       <c r="G5" t="s">
@@ -11213,10 +10988,10 @@
       <c r="A8">
         <v>6</v>
       </c>
-      <c r="B8" s="2" t="s">
+      <c r="B8" t="s">
         <v>202</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>2013</v>
       </c>
       <c r="D8" t="s">
@@ -11263,23 +11038,23 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:L29"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B32" sqref="B32"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="45.28515625" customWidth="1"/>
-    <col min="3" max="3" width="16.7109375" hidden="1" customWidth="1"/>
-    <col min="4" max="6" width="0" hidden="1" customWidth="1"/>
-    <col min="7" max="7" width="31.5703125" hidden="1" customWidth="1"/>
-    <col min="8" max="8" width="64.42578125" hidden="1" customWidth="1"/>
-    <col min="9" max="9" width="0" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7109375" customWidth="1"/>
+    <col min="4" max="4" width="11.5703125" customWidth="1"/>
+    <col min="5" max="5" width="31.5703125" customWidth="1"/>
+    <col min="6" max="6" width="64.42578125" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -11292,23 +11067,23 @@
       <c r="D1" t="s">
         <v>168</v>
       </c>
+      <c r="E1" t="s">
+        <v>136</v>
+      </c>
+      <c r="F1" t="s">
+        <v>137</v>
+      </c>
       <c r="G1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="H1" t="s">
-        <v>137</v>
+        <v>209</v>
       </c>
       <c r="I1" t="s">
-        <v>139</v>
-      </c>
-      <c r="J1" t="s">
-        <v>209</v>
-      </c>
-      <c r="K1" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -11321,23 +11096,23 @@
       <c r="D2" t="s">
         <v>170</v>
       </c>
+      <c r="E2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F2" t="s">
+        <v>142</v>
+      </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="H2" t="s">
-        <v>142</v>
+        <v>211</v>
       </c>
       <c r="I2" t="s">
-        <v>143</v>
-      </c>
-      <c r="J2" t="s">
-        <v>211</v>
-      </c>
-      <c r="K2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -11350,31 +11125,23 @@
       <c r="D3">
         <v>2006</v>
       </c>
-      <c r="E3" t="str">
-        <f>C3&amp;"-01-01"</f>
-        <v>2006-01-01</v>
-      </c>
-      <c r="F3" t="str">
-        <f>D3&amp;"-01-01"</f>
-        <v>2006-01-01</v>
+      <c r="E3" t="s">
+        <v>213</v>
+      </c>
+      <c r="F3" t="s">
+        <v>214</v>
       </c>
       <c r="G3" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H3" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="I3" t="s">
-        <v>215</v>
-      </c>
-      <c r="J3" t="s">
-        <v>216</v>
-      </c>
-      <c r="K3" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -11387,31 +11154,23 @@
       <c r="D4">
         <v>2006</v>
       </c>
-      <c r="E4" t="str">
-        <f t="shared" ref="E4:E29" si="0">C4&amp;"-01-01"</f>
-        <v>2006-01-01</v>
-      </c>
-      <c r="F4" t="str">
-        <f t="shared" ref="F4:F29" si="1">D4&amp;"-01-01"</f>
-        <v>2006-01-01</v>
+      <c r="E4" t="s">
+        <v>219</v>
+      </c>
+      <c r="F4" t="s">
+        <v>220</v>
       </c>
       <c r="G4" t="s">
-        <v>219</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>220</v>
-      </c>
-      <c r="I4" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J4" s="2" t="s">
+      <c r="H4" t="s">
         <v>221</v>
       </c>
-      <c r="K4" s="2" t="s">
+      <c r="I4" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
@@ -11424,31 +11183,23 @@
       <c r="D5">
         <v>2007</v>
       </c>
-      <c r="E5" t="str">
-        <f t="shared" si="0"/>
-        <v>2007-01-01</v>
-      </c>
-      <c r="F5" t="str">
-        <f t="shared" si="1"/>
-        <v>2007-01-01</v>
+      <c r="E5" t="s">
+        <v>213</v>
+      </c>
+      <c r="F5" t="s">
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H5" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="I5" t="s">
-        <v>215</v>
-      </c>
-      <c r="J5" t="s">
-        <v>222</v>
-      </c>
-      <c r="K5" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
@@ -11461,31 +11212,23 @@
       <c r="D6">
         <v>2007</v>
       </c>
-      <c r="E6" t="str">
-        <f t="shared" si="0"/>
-        <v>2007-01-01</v>
-      </c>
-      <c r="F6" t="str">
-        <f t="shared" si="1"/>
-        <v>2007-01-01</v>
+      <c r="E6" t="s">
+        <v>224</v>
+      </c>
+      <c r="F6" t="s">
+        <v>225</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>225</v>
-      </c>
-      <c r="I6" s="2" t="s">
         <v>226</v>
       </c>
-      <c r="J6" s="2" t="s">
+      <c r="H6" t="s">
         <v>221</v>
       </c>
-      <c r="K6" t="s">
+      <c r="I6" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
@@ -11498,31 +11241,23 @@
       <c r="D7">
         <v>2007</v>
       </c>
-      <c r="E7" t="str">
-        <f t="shared" si="0"/>
-        <v>2007-01-01</v>
-      </c>
-      <c r="F7" t="str">
-        <f t="shared" si="1"/>
-        <v>2007-01-01</v>
+      <c r="E7" t="s">
+        <v>228</v>
+      </c>
+      <c r="F7" t="s">
+        <v>229</v>
       </c>
       <c r="G7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="I7" t="s">
-        <v>230</v>
-      </c>
-      <c r="J7" t="s">
-        <v>231</v>
-      </c>
-      <c r="K7" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
@@ -11535,31 +11270,23 @@
       <c r="D8">
         <v>2008</v>
       </c>
-      <c r="E8" t="str">
-        <f t="shared" si="0"/>
-        <v>2008-01-01</v>
-      </c>
-      <c r="F8" t="str">
-        <f t="shared" si="1"/>
-        <v>2008-01-01</v>
+      <c r="E8" t="s">
+        <v>213</v>
+      </c>
+      <c r="F8" t="s">
+        <v>232</v>
       </c>
       <c r="G8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H8" t="s">
-        <v>232</v>
+        <v>222</v>
       </c>
       <c r="I8" t="s">
-        <v>215</v>
-      </c>
-      <c r="J8" t="s">
-        <v>222</v>
-      </c>
-      <c r="K8" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
@@ -11572,31 +11299,23 @@
       <c r="D9">
         <v>2009</v>
       </c>
-      <c r="E9" t="str">
-        <f t="shared" si="0"/>
-        <v>2009-01-01</v>
-      </c>
-      <c r="F9" t="str">
-        <f t="shared" si="1"/>
-        <v>2009-01-01</v>
+      <c r="E9" t="s">
+        <v>234</v>
+      </c>
+      <c r="F9" t="s">
+        <v>235</v>
       </c>
       <c r="G9" t="s">
-        <v>234</v>
-      </c>
-      <c r="H9" s="2" t="s">
-        <v>235</v>
-      </c>
-      <c r="I9" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="J9" s="2" t="s">
+      <c r="H9" t="s">
         <v>236</v>
       </c>
-      <c r="K9" s="2" t="s">
+      <c r="I9" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
@@ -11609,31 +11328,23 @@
       <c r="D10">
         <v>2009</v>
       </c>
-      <c r="E10" t="str">
-        <f t="shared" si="0"/>
-        <v>2009-01-01</v>
-      </c>
-      <c r="F10" t="str">
-        <f t="shared" si="1"/>
-        <v>2009-01-01</v>
+      <c r="E10" t="s">
+        <v>238</v>
+      </c>
+      <c r="F10" t="s">
+        <v>239</v>
       </c>
       <c r="G10" t="s">
-        <v>238</v>
-      </c>
-      <c r="H10" s="2" t="s">
-        <v>239</v>
-      </c>
-      <c r="I10" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J10" t="s">
+      <c r="H10" t="s">
         <v>240</v>
       </c>
-      <c r="K10" s="2" t="s">
+      <c r="I10" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
@@ -11646,31 +11357,23 @@
       <c r="D11">
         <v>2009</v>
       </c>
-      <c r="E11" t="str">
-        <f t="shared" si="0"/>
-        <v>2009-01-01</v>
-      </c>
-      <c r="F11" t="str">
-        <f t="shared" si="1"/>
-        <v>2009-01-01</v>
+      <c r="E11" t="s">
+        <v>242</v>
+      </c>
+      <c r="F11" t="s">
+        <v>243</v>
       </c>
       <c r="G11" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="H11" t="s">
-        <v>243</v>
+        <v>221</v>
       </c>
       <c r="I11" t="s">
-        <v>244</v>
-      </c>
-      <c r="J11" t="s">
-        <v>221</v>
-      </c>
-      <c r="K11" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
@@ -11683,31 +11386,23 @@
       <c r="D12">
         <v>2010</v>
       </c>
-      <c r="E12" t="str">
-        <f t="shared" si="0"/>
-        <v>2010-01-01</v>
-      </c>
-      <c r="F12" t="str">
-        <f t="shared" si="1"/>
-        <v>2010-01-01</v>
+      <c r="E12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>247</v>
       </c>
       <c r="G12" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="H12" t="s">
-        <v>247</v>
+        <v>222</v>
       </c>
       <c r="I12" t="s">
-        <v>215</v>
-      </c>
-      <c r="J12" t="s">
-        <v>222</v>
-      </c>
-      <c r="K12" s="2" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
@@ -11720,31 +11415,23 @@
       <c r="D13">
         <v>2010</v>
       </c>
-      <c r="E13" t="str">
-        <f t="shared" si="0"/>
-        <v>2010-01-01</v>
-      </c>
-      <c r="F13" t="str">
-        <f t="shared" si="1"/>
-        <v>2010-01-01</v>
+      <c r="E13" t="s">
+        <v>249</v>
+      </c>
+      <c r="F13" t="s">
+        <v>250</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>946</v>
       </c>
       <c r="H13" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="I13" t="s">
-        <v>946</v>
-      </c>
-      <c r="J13" t="s">
-        <v>251</v>
-      </c>
-      <c r="K13" s="2" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
@@ -11757,31 +11444,23 @@
       <c r="D14">
         <v>2010</v>
       </c>
-      <c r="E14" t="str">
-        <f t="shared" si="0"/>
-        <v>2010-01-01</v>
-      </c>
-      <c r="F14" t="str">
-        <f t="shared" si="1"/>
-        <v>2010-01-01</v>
+      <c r="E14" t="s">
+        <v>253</v>
+      </c>
+      <c r="F14" t="s">
+        <v>254</v>
       </c>
       <c r="G14" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="H14" t="s">
-        <v>254</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>255</v>
-      </c>
-      <c r="J14" t="s">
         <v>256</v>
       </c>
-      <c r="K14" s="2" t="s">
+      <c r="I14" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
@@ -11794,31 +11473,23 @@
       <c r="D15">
         <v>2010</v>
       </c>
-      <c r="E15" t="str">
-        <f t="shared" si="0"/>
-        <v>2007-01-01</v>
-      </c>
-      <c r="F15" t="str">
-        <f t="shared" si="1"/>
-        <v>2010-01-01</v>
+      <c r="E15" t="s">
+        <v>219</v>
+      </c>
+      <c r="F15" t="s">
+        <v>257</v>
       </c>
       <c r="G15" t="s">
-        <v>219</v>
-      </c>
-      <c r="H15" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="I15" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J15" s="2" t="s">
+      <c r="H15" t="s">
         <v>236</v>
       </c>
-      <c r="K15" s="2" t="s">
+      <c r="I15" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
@@ -11831,31 +11502,23 @@
       <c r="D16">
         <v>2010</v>
       </c>
-      <c r="E16" t="str">
-        <f t="shared" si="0"/>
-        <v>2010-01-01</v>
-      </c>
-      <c r="F16" t="str">
-        <f t="shared" si="1"/>
-        <v>2010-01-01</v>
+      <c r="E16" t="s">
+        <v>242</v>
+      </c>
+      <c r="F16" t="s">
+        <v>243</v>
       </c>
       <c r="G16" t="s">
-        <v>242</v>
+        <v>258</v>
       </c>
       <c r="H16" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="I16" t="s">
-        <v>258</v>
-      </c>
-      <c r="J16" t="s">
-        <v>240</v>
-      </c>
-      <c r="K16" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
@@ -11868,31 +11531,23 @@
       <c r="D17">
         <v>2011</v>
       </c>
-      <c r="E17" t="str">
-        <f t="shared" si="0"/>
-        <v>2011-01-01</v>
-      </c>
-      <c r="F17" t="str">
-        <f t="shared" si="1"/>
-        <v>2011-01-01</v>
+      <c r="E17" t="s">
+        <v>253</v>
+      </c>
+      <c r="F17" t="s">
+        <v>259</v>
       </c>
       <c r="G17" t="s">
-        <v>253</v>
+        <v>215</v>
       </c>
       <c r="H17" t="s">
-        <v>259</v>
-      </c>
-      <c r="I17" s="2" t="s">
-        <v>215</v>
-      </c>
-      <c r="J17" t="s">
         <v>260</v>
       </c>
-      <c r="K17" s="2" t="s">
+      <c r="I17" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
@@ -11905,31 +11560,23 @@
       <c r="D18">
         <v>2011</v>
       </c>
-      <c r="E18" t="str">
-        <f t="shared" si="0"/>
-        <v>2011-01-01</v>
-      </c>
-      <c r="F18" t="str">
-        <f t="shared" si="1"/>
-        <v>2011-01-01</v>
+      <c r="E18" t="s">
+        <v>262</v>
+      </c>
+      <c r="F18" t="s">
+        <v>263</v>
       </c>
       <c r="G18" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H18" t="s">
-        <v>263</v>
-      </c>
-      <c r="I18" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="J18" t="s">
         <v>256</v>
       </c>
-      <c r="K18" s="2" t="s">
+      <c r="I18" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
@@ -11942,31 +11589,23 @@
       <c r="D19">
         <v>2014</v>
       </c>
-      <c r="E19" t="str">
-        <f t="shared" si="0"/>
-        <v>2011-01-01</v>
-      </c>
-      <c r="F19" t="str">
-        <f t="shared" si="1"/>
-        <v>2014-01-01</v>
+      <c r="E19" t="s">
+        <v>242</v>
+      </c>
+      <c r="F19" t="s">
+        <v>265</v>
       </c>
       <c r="G19" t="s">
-        <v>242</v>
+        <v>266</v>
       </c>
       <c r="H19" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="I19" t="s">
-        <v>266</v>
-      </c>
-      <c r="J19" t="s">
-        <v>267</v>
-      </c>
-      <c r="K19" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
@@ -11979,31 +11618,23 @@
       <c r="D20">
         <v>2015</v>
       </c>
-      <c r="E20" t="str">
-        <f t="shared" si="0"/>
-        <v>2013-01-01</v>
-      </c>
-      <c r="F20" t="str">
-        <f t="shared" si="1"/>
-        <v>2015-01-01</v>
+      <c r="E20" t="s">
+        <v>269</v>
+      </c>
+      <c r="F20" t="s">
+        <v>270</v>
       </c>
       <c r="G20" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="H20" t="s">
-        <v>270</v>
-      </c>
-      <c r="I20" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="J20" t="s">
         <v>267</v>
       </c>
-      <c r="K20" s="2" t="s">
+      <c r="I20" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
@@ -12016,31 +11647,23 @@
       <c r="D21">
         <v>2015</v>
       </c>
-      <c r="E21" t="str">
-        <f t="shared" si="0"/>
-        <v>2012-01-01</v>
-      </c>
-      <c r="F21" t="str">
-        <f t="shared" si="1"/>
-        <v>2015-01-01</v>
+      <c r="E21" t="s">
+        <v>272</v>
+      </c>
+      <c r="F21" t="s">
+        <v>273</v>
       </c>
       <c r="G21" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="H21" t="s">
-        <v>273</v>
-      </c>
-      <c r="I21" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="J21" t="s">
         <v>267</v>
       </c>
-      <c r="K21" s="2" t="s">
+      <c r="I21" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
@@ -12053,31 +11676,23 @@
       <c r="D22">
         <v>2015</v>
       </c>
-      <c r="E22" t="str">
-        <f t="shared" si="0"/>
-        <v>2011-01-01</v>
-      </c>
-      <c r="F22" t="str">
-        <f t="shared" si="1"/>
-        <v>2015-01-01</v>
+      <c r="E22" t="s">
+        <v>238</v>
+      </c>
+      <c r="F22" t="s">
+        <v>275</v>
       </c>
       <c r="G22" t="s">
-        <v>238</v>
-      </c>
-      <c r="H22" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="I22" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J22" s="2" t="s">
+      <c r="H22" t="s">
         <v>276</v>
       </c>
-      <c r="K22" s="2" t="s">
+      <c r="I22" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
@@ -12090,31 +11705,23 @@
       <c r="D23">
         <v>2015</v>
       </c>
-      <c r="E23" t="str">
-        <f t="shared" si="0"/>
-        <v>2015-01-01</v>
-      </c>
-      <c r="F23" t="str">
-        <f t="shared" si="1"/>
-        <v>2015-01-01</v>
+      <c r="E23" t="s">
+        <v>242</v>
+      </c>
+      <c r="F23" t="s">
+        <v>277</v>
       </c>
       <c r="G23" t="s">
-        <v>242</v>
+        <v>215</v>
       </c>
       <c r="H23" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="I23" t="s">
-        <v>215</v>
-      </c>
-      <c r="J23" t="s">
-        <v>278</v>
-      </c>
-      <c r="K23" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
@@ -12127,31 +11734,23 @@
       <c r="D24">
         <v>2016</v>
       </c>
-      <c r="E24" t="str">
-        <f t="shared" si="0"/>
-        <v>2016-01-01</v>
-      </c>
-      <c r="F24" t="str">
-        <f t="shared" si="1"/>
-        <v>2016-01-01</v>
+      <c r="E24" t="s">
+        <v>279</v>
+      </c>
+      <c r="F24" t="s">
+        <v>263</v>
       </c>
       <c r="G24" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H24" t="s">
-        <v>263</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>280</v>
-      </c>
-      <c r="J24" t="s">
         <v>281</v>
       </c>
-      <c r="K24" s="2" t="s">
+      <c r="I24" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
@@ -12164,31 +11763,23 @@
       <c r="D25">
         <v>2021</v>
       </c>
-      <c r="E25" t="str">
-        <f t="shared" si="0"/>
-        <v>2017-01-01</v>
-      </c>
-      <c r="F25" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-01-01</v>
+      <c r="E25" t="s">
+        <v>282</v>
+      </c>
+      <c r="F25" t="s">
+        <v>283</v>
       </c>
       <c r="G25" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H25" t="s">
-        <v>283</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="J25" t="s">
         <v>260</v>
       </c>
-      <c r="K25" s="2" t="s">
+      <c r="I25" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
@@ -12201,31 +11792,23 @@
       <c r="D26">
         <v>2017</v>
       </c>
-      <c r="E26" t="str">
-        <f t="shared" si="0"/>
-        <v>2017-01-01</v>
-      </c>
-      <c r="F26" t="str">
-        <f t="shared" si="1"/>
-        <v>2017-01-01</v>
+      <c r="E26" t="s">
+        <v>286</v>
+      </c>
+      <c r="F26" t="s">
+        <v>287</v>
       </c>
       <c r="G26" t="s">
-        <v>286</v>
-      </c>
-      <c r="H26" s="2" t="s">
-        <v>287</v>
-      </c>
-      <c r="I26" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="J26" t="s">
+      <c r="H26" t="s">
         <v>267</v>
       </c>
-      <c r="K26" s="2" t="s">
+      <c r="I26" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
@@ -12238,32 +11821,24 @@
       <c r="D27">
         <v>2018</v>
       </c>
-      <c r="E27" t="str">
-        <f t="shared" si="0"/>
-        <v>2011-01-01</v>
-      </c>
-      <c r="F27" t="str">
-        <f t="shared" si="1"/>
-        <v>2018-01-01</v>
+      <c r="E27" t="s">
+        <v>290</v>
+      </c>
+      <c r="F27" t="s">
+        <v>291</v>
       </c>
       <c r="G27" t="s">
-        <v>290</v>
-      </c>
-      <c r="H27" s="2" t="s">
-        <v>291</v>
-      </c>
-      <c r="I27" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="J27" s="2" t="s">
+      <c r="H27" t="s">
         <v>292</v>
       </c>
-      <c r="K27" t="s">
+      <c r="I27" t="s">
         <v>223</v>
       </c>
-      <c r="L27" s="4"/>
-    </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="J27" s="3"/>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
@@ -12276,31 +11851,23 @@
       <c r="D28">
         <v>2021</v>
       </c>
-      <c r="E28" t="str">
-        <f t="shared" si="0"/>
-        <v>2009-01-01</v>
-      </c>
-      <c r="F28" t="str">
-        <f t="shared" si="1"/>
-        <v>2021-01-01</v>
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" t="s">
+        <v>294</v>
       </c>
       <c r="G28" t="s">
-        <v>293</v>
-      </c>
-      <c r="H28" s="2" t="s">
-        <v>294</v>
-      </c>
-      <c r="I28" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J28" s="2" t="s">
+      <c r="H28" t="s">
         <v>236</v>
       </c>
-      <c r="K28" t="s">
+      <c r="I28" t="s">
         <v>217</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
@@ -12313,27 +11880,19 @@
       <c r="D29">
         <v>2019</v>
       </c>
-      <c r="E29" t="str">
-        <f t="shared" si="0"/>
-        <v>2016-01-01</v>
-      </c>
-      <c r="F29" t="str">
-        <f t="shared" si="1"/>
-        <v>2019-01-01</v>
+      <c r="E29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F29" t="s">
+        <v>296</v>
       </c>
       <c r="G29" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H29" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="I29" t="s">
-        <v>230</v>
-      </c>
-      <c r="J29" t="s">
-        <v>297</v>
-      </c>
-      <c r="K29" t="s">
         <v>217</v>
       </c>
     </row>
@@ -12345,20 +11904,19 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:A49"/>
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="85.7109375" customWidth="1"/>
-    <col min="4" max="4" width="20.42578125" customWidth="1"/>
-    <col min="6" max="6" width="21" customWidth="1"/>
+    <col min="5" max="5" width="21" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>43</v>
       </c>
@@ -12368,20 +11926,20 @@
       <c r="C1" t="s">
         <v>135</v>
       </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
       <c r="E1" t="s">
-        <v>209</v>
+        <v>137</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G1" t="s">
-        <v>139</v>
-      </c>
-      <c r="H1" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>47</v>
       </c>
@@ -12391,788 +11949,756 @@
       <c r="C2" t="s">
         <v>140</v>
       </c>
+      <c r="D2" t="s">
+        <v>211</v>
+      </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>142</v>
       </c>
       <c r="F2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G2" t="s">
-        <v>143</v>
-      </c>
-      <c r="H2" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
         <v>298</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="5" t="s">
         <v>948</v>
       </c>
-      <c r="D3" s="6"/>
+      <c r="D3" t="s">
+        <v>299</v>
+      </c>
       <c r="E3" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F3" t="s">
-        <v>300</v>
+        <v>190</v>
       </c>
       <c r="G3" t="s">
-        <v>190</v>
-      </c>
-      <c r="H3" t="s">
         <v>301</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
         <v>302</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="5">
         <v>2008</v>
       </c>
-      <c r="D4" s="6"/>
+      <c r="D4" t="s">
+        <v>303</v>
+      </c>
       <c r="E4" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F4" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G4" t="s">
-        <v>305</v>
-      </c>
-      <c r="H4" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
         <v>307</v>
       </c>
-      <c r="C5" s="6">
+      <c r="C5" s="5">
         <v>2008</v>
       </c>
-      <c r="D5" s="6"/>
+      <c r="D5" t="s">
+        <v>303</v>
+      </c>
       <c r="E5" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G5" t="s">
-        <v>309</v>
-      </c>
-      <c r="H5" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
         <v>307</v>
       </c>
-      <c r="C6" s="6">
+      <c r="C6" s="5">
         <v>2009</v>
       </c>
-      <c r="D6" s="6"/>
+      <c r="D6" t="s">
+        <v>303</v>
+      </c>
       <c r="E6" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="F6" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
-        <v>305</v>
-      </c>
-      <c r="H6" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
         <v>311</v>
       </c>
-      <c r="C7" s="6">
+      <c r="C7" s="5">
         <v>2010</v>
       </c>
-      <c r="D7" s="6"/>
+      <c r="D7" t="s">
+        <v>303</v>
+      </c>
       <c r="E7" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F7" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
         <v>313</v>
       </c>
-      <c r="C8" s="6">
+      <c r="C8" s="5">
         <v>2014</v>
       </c>
-      <c r="D8" s="6"/>
+      <c r="D8" t="s">
+        <v>303</v>
+      </c>
       <c r="E8" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F8" t="s">
-        <v>312</v>
+        <v>305</v>
       </c>
       <c r="G8" t="s">
-        <v>305</v>
-      </c>
-      <c r="H8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
         <v>314</v>
       </c>
-      <c r="C9" s="6">
+      <c r="C9" s="5">
         <v>2015</v>
       </c>
-      <c r="D9" s="6"/>
+      <c r="D9" t="s">
+        <v>303</v>
+      </c>
       <c r="E9" t="s">
-        <v>303</v>
+        <v>312</v>
       </c>
       <c r="F9" t="s">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="G9" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
         <v>315</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10" s="5">
         <v>2010</v>
       </c>
-      <c r="D10" s="6"/>
+      <c r="D10" t="s">
+        <v>299</v>
+      </c>
       <c r="E10" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F10" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="G10" t="s">
-        <v>317</v>
-      </c>
-      <c r="H10" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
         <v>319</v>
       </c>
-      <c r="C11" s="6" t="s">
+      <c r="C11" s="5" t="s">
         <v>320</v>
       </c>
-      <c r="D11" s="6"/>
+      <c r="D11" t="s">
+        <v>299</v>
+      </c>
       <c r="E11" t="s">
-        <v>299</v>
+        <v>316</v>
       </c>
       <c r="F11" t="s">
-        <v>316</v>
+        <v>295</v>
       </c>
       <c r="G11" t="s">
-        <v>295</v>
-      </c>
-      <c r="H11" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
         <v>307</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12" s="5">
         <v>2014</v>
       </c>
-      <c r="D12" s="6"/>
+      <c r="D12" t="s">
+        <v>299</v>
+      </c>
       <c r="E12" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F12" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G12" t="s">
-        <v>305</v>
-      </c>
-      <c r="H12" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
         <v>307</v>
       </c>
-      <c r="C13" s="6">
+      <c r="C13" s="5">
         <v>2012</v>
       </c>
-      <c r="D13" s="6"/>
+      <c r="D13" t="s">
+        <v>299</v>
+      </c>
       <c r="E13" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F13" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G13" t="s">
-        <v>305</v>
-      </c>
-      <c r="H13" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
         <v>307</v>
       </c>
-      <c r="C14" s="6">
+      <c r="C14" s="5">
         <v>2010</v>
       </c>
-      <c r="D14" s="6"/>
+      <c r="D14" t="s">
+        <v>299</v>
+      </c>
       <c r="E14" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F14" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="G14" t="s">
-        <v>305</v>
-      </c>
-      <c r="H14" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
         <v>322</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15" s="5">
         <v>2014</v>
       </c>
-      <c r="D15" s="6"/>
+      <c r="D15" t="s">
+        <v>299</v>
+      </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>323</v>
       </c>
       <c r="G15" t="s">
-        <v>323</v>
-      </c>
-      <c r="H15" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
         <v>325</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16" s="5">
         <v>2006</v>
       </c>
-      <c r="D16" s="6"/>
+      <c r="D16" t="s">
+        <v>303</v>
+      </c>
       <c r="E16" t="s">
-        <v>303</v>
+        <v>326</v>
       </c>
       <c r="F16" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="G16" t="s">
-        <v>327</v>
-      </c>
-      <c r="H16" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
         <v>329</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17" s="5">
         <v>2013</v>
       </c>
-      <c r="D17" s="6"/>
+      <c r="D17" t="s">
+        <v>299</v>
+      </c>
       <c r="E17" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F17" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="G17" t="s">
-        <v>187</v>
-      </c>
-      <c r="H17" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
         <v>331</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="C18" s="5" t="s">
         <v>947</v>
       </c>
-      <c r="D18" s="6"/>
+      <c r="D18" t="s">
+        <v>299</v>
+      </c>
       <c r="E18" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F18" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="G18" t="s">
-        <v>190</v>
-      </c>
-      <c r="H18" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
         <v>334</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19" s="5">
         <v>2017</v>
       </c>
-      <c r="D19" s="6"/>
+      <c r="D19" t="s">
+        <v>299</v>
+      </c>
       <c r="E19" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F19" t="s">
-        <v>332</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" t="s">
         <v>333</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
         <v>335</v>
       </c>
-      <c r="C20" s="6" t="s">
+      <c r="C20" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D20" s="6"/>
-      <c r="E20" s="2" t="s">
+      <c r="D20" t="s">
         <v>337</v>
       </c>
+      <c r="E20" t="s">
+        <v>332</v>
+      </c>
       <c r="F20" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G20" t="s">
-        <v>187</v>
-      </c>
-      <c r="H20" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
         <v>339</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D21" s="6"/>
-      <c r="E21" s="2" t="s">
+      <c r="D21" t="s">
         <v>337</v>
       </c>
+      <c r="E21" t="s">
+        <v>332</v>
+      </c>
       <c r="F21" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G21" t="s">
-        <v>187</v>
-      </c>
-      <c r="H21" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
         <v>341</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" t="s">
+        <v>337</v>
+      </c>
       <c r="E22" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F22" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G22" t="s">
-        <v>187</v>
-      </c>
-      <c r="H22" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
         <v>341</v>
       </c>
-      <c r="C23" s="6" t="s">
+      <c r="C23" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D23" s="6"/>
+      <c r="D23" t="s">
+        <v>337</v>
+      </c>
       <c r="E23" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F23" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G23" t="s">
-        <v>187</v>
-      </c>
-      <c r="H23" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
         <v>344</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="5" t="s">
         <v>340</v>
       </c>
-      <c r="D24" s="6"/>
+      <c r="D24" t="s">
+        <v>337</v>
+      </c>
       <c r="E24" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F24" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G24" t="s">
-        <v>187</v>
-      </c>
-      <c r="H24" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>345</v>
       </c>
-      <c r="C25" s="6" t="s">
+      <c r="C25" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D25" s="6"/>
+      <c r="D25" t="s">
+        <v>337</v>
+      </c>
       <c r="E25" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F25" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G25" t="s">
-        <v>187</v>
-      </c>
-      <c r="H25" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
         <v>347</v>
       </c>
-      <c r="C26" s="6" t="s">
+      <c r="C26" s="5" t="s">
         <v>348</v>
       </c>
-      <c r="D26" s="6"/>
+      <c r="D26" t="s">
+        <v>337</v>
+      </c>
       <c r="E26" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F26" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G26" t="s">
-        <v>187</v>
-      </c>
-      <c r="H26" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
         <v>349</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="C27" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D27" s="6"/>
+      <c r="D27" t="s">
+        <v>337</v>
+      </c>
       <c r="E27" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F27" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G27" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
         <v>351</v>
       </c>
-      <c r="C28" s="6" t="s">
+      <c r="C28" s="5" t="s">
         <v>336</v>
       </c>
-      <c r="D28" s="6"/>
+      <c r="D28" t="s">
+        <v>337</v>
+      </c>
       <c r="E28" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F28" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G28" t="s">
-        <v>187</v>
-      </c>
-      <c r="H28" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
         <v>351</v>
       </c>
-      <c r="C29" s="6" t="s">
+      <c r="C29" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D29" s="6"/>
+      <c r="D29" t="s">
+        <v>337</v>
+      </c>
       <c r="E29" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F29" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G29" t="s">
-        <v>187</v>
-      </c>
-      <c r="H29" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
         <v>352</v>
       </c>
-      <c r="C30" s="6" t="s">
+      <c r="C30" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D30" s="6"/>
+      <c r="D30" t="s">
+        <v>337</v>
+      </c>
       <c r="E30" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F30" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G30" t="s">
-        <v>187</v>
-      </c>
-      <c r="H30" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
         <v>353</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D31" s="6"/>
+      <c r="D31" t="s">
+        <v>337</v>
+      </c>
       <c r="E31" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="F31" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G31" t="s">
-        <v>187</v>
-      </c>
-      <c r="H31" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
         <v>354</v>
       </c>
-      <c r="C32" s="6" t="s">
+      <c r="C32" s="5" t="s">
         <v>350</v>
       </c>
-      <c r="D32" s="6"/>
+      <c r="D32" t="s">
+        <v>299</v>
+      </c>
       <c r="E32" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F32" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G32" t="s">
-        <v>187</v>
-      </c>
-      <c r="H32" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
         <v>354</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="5" t="s">
         <v>342</v>
       </c>
-      <c r="D33" s="6"/>
+      <c r="D33" t="s">
+        <v>299</v>
+      </c>
       <c r="E33" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F33" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G33" t="s">
-        <v>187</v>
-      </c>
-      <c r="H33" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
         <v>354</v>
       </c>
-      <c r="C34" s="6" t="s">
+      <c r="C34" s="5" t="s">
         <v>355</v>
       </c>
-      <c r="D34" s="6"/>
+      <c r="D34" t="s">
+        <v>299</v>
+      </c>
       <c r="E34" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F34" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G34" t="s">
-        <v>187</v>
-      </c>
-      <c r="H34" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>33</v>
       </c>
@@ -13182,20 +12708,20 @@
       <c r="C35" t="s">
         <v>357</v>
       </c>
+      <c r="D35" t="s">
+        <v>299</v>
+      </c>
       <c r="E35" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F35" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G35" t="s">
-        <v>187</v>
-      </c>
-      <c r="H35" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>34</v>
       </c>
@@ -13205,20 +12731,20 @@
       <c r="C36" t="s">
         <v>357</v>
       </c>
+      <c r="D36" t="s">
+        <v>299</v>
+      </c>
       <c r="E36" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F36" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>187</v>
-      </c>
-      <c r="H36" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>35</v>
       </c>
@@ -13228,20 +12754,20 @@
       <c r="C37" t="s">
         <v>357</v>
       </c>
+      <c r="D37" t="s">
+        <v>299</v>
+      </c>
       <c r="E37" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F37" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G37" t="s">
-        <v>187</v>
-      </c>
-      <c r="H37" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>36</v>
       </c>
@@ -13251,20 +12777,20 @@
       <c r="C38" t="s">
         <v>359</v>
       </c>
+      <c r="D38" t="s">
+        <v>299</v>
+      </c>
       <c r="E38" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F38" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G38" t="s">
-        <v>187</v>
-      </c>
-      <c r="H38" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>37</v>
       </c>
@@ -13274,20 +12800,20 @@
       <c r="C39" t="s">
         <v>360</v>
       </c>
+      <c r="D39" t="s">
+        <v>299</v>
+      </c>
       <c r="E39" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F39" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G39" t="s">
-        <v>187</v>
-      </c>
-      <c r="H39" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>38</v>
       </c>
@@ -13297,20 +12823,20 @@
       <c r="C40" t="s">
         <v>360</v>
       </c>
+      <c r="D40" t="s">
+        <v>299</v>
+      </c>
       <c r="E40" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F40" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G40" t="s">
-        <v>187</v>
-      </c>
-      <c r="H40" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>39</v>
       </c>
@@ -13320,20 +12846,20 @@
       <c r="C41" t="s">
         <v>360</v>
       </c>
+      <c r="D41" t="s">
+        <v>299</v>
+      </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F41" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G41" t="s">
-        <v>187</v>
-      </c>
-      <c r="H41" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>40</v>
       </c>
@@ -13343,20 +12869,20 @@
       <c r="C42" t="s">
         <v>365</v>
       </c>
+      <c r="D42" t="s">
+        <v>299</v>
+      </c>
       <c r="E42" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G42" t="s">
-        <v>187</v>
-      </c>
-      <c r="H42" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>41</v>
       </c>
@@ -13366,20 +12892,20 @@
       <c r="C43" t="s">
         <v>365</v>
       </c>
+      <c r="D43" t="s">
+        <v>299</v>
+      </c>
       <c r="E43" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G43" t="s">
-        <v>187</v>
-      </c>
-      <c r="H43" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>42</v>
       </c>
@@ -13389,20 +12915,20 @@
       <c r="C44" t="s">
         <v>365</v>
       </c>
+      <c r="D44" t="s">
+        <v>299</v>
+      </c>
       <c r="E44" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F44" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G44" t="s">
-        <v>187</v>
-      </c>
-      <c r="H44" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>43</v>
       </c>
@@ -13412,20 +12938,20 @@
       <c r="C45" t="s">
         <v>367</v>
       </c>
+      <c r="D45" t="s">
+        <v>299</v>
+      </c>
       <c r="E45" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F45" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G45" t="s">
-        <v>187</v>
-      </c>
-      <c r="H45" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>44</v>
       </c>
@@ -13435,20 +12961,20 @@
       <c r="C46" t="s">
         <v>367</v>
       </c>
+      <c r="D46" t="s">
+        <v>299</v>
+      </c>
       <c r="E46" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F46" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G46" t="s">
-        <v>187</v>
-      </c>
-      <c r="H46" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>45</v>
       </c>
@@ -13458,20 +12984,20 @@
       <c r="C47" t="s">
         <v>367</v>
       </c>
+      <c r="D47" t="s">
+        <v>299</v>
+      </c>
       <c r="E47" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F47" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G47" t="s">
-        <v>187</v>
-      </c>
-      <c r="H47" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>46</v>
       </c>
@@ -13481,20 +13007,20 @@
       <c r="C48">
         <v>2020</v>
       </c>
+      <c r="D48" t="s">
+        <v>299</v>
+      </c>
       <c r="E48" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F48" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="G48" t="s">
-        <v>187</v>
-      </c>
-      <c r="H48" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>47</v>
       </c>
@@ -13504,20 +13030,20 @@
       <c r="C49">
         <v>2021</v>
       </c>
+      <c r="D49" t="s">
+        <v>299</v>
+      </c>
       <c r="E49" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="F49" t="s">
-        <v>300</v>
+        <v>187</v>
       </c>
       <c r="G49" t="s">
-        <v>187</v>
-      </c>
-      <c r="H49" t="s">
         <v>338</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>48</v>
       </c>
@@ -13527,16 +13053,16 @@
       <c r="C50">
         <v>2021</v>
       </c>
+      <c r="D50" t="s">
+        <v>299</v>
+      </c>
       <c r="E50" t="s">
-        <v>299</v>
+        <v>332</v>
       </c>
       <c r="F50" t="s">
-        <v>332</v>
+        <v>187</v>
       </c>
       <c r="G50" t="s">
-        <v>187</v>
-      </c>
-      <c r="H50" t="s">
         <v>338</v>
       </c>
     </row>
